--- a/StructureDefinition-ms-bundle.xlsx
+++ b/StructureDefinition-ms-bundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-31T18:02:56-05:00</t>
+    <t>2022-11-02T14:44:07-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1122,7 +1122,7 @@
     <t>Information about an individual or animal receiving health care services</t>
   </si>
   <si>
-    <t>Demographics and other administrative information about an individual or animal receiving care or other health-related services.</t>
+    <t>The US Core Patient Profile is based upon the core FHIR Patient Resource and designed to meet the applicable patient demographic data elements from the 2015 Edition Common Clinical Data Set.</t>
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}

--- a/StructureDefinition-ms-bundle.xlsx
+++ b/StructureDefinition-ms-bundle.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$481</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$513</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17191" uniqueCount="867">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18332" uniqueCount="903">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-19T18:37:26-06:00</t>
+    <t>2024-03-18T10:20:43-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1391,6 +1391,138 @@
     <t>Bundle.entry:msDiagnosis.response.outcome</t>
   </si>
   <si>
+    <t>Bundle.entry:msGenderIdentity</t>
+  </si>
+  <si>
+    <t>msGenderIdentity</t>
+  </si>
+  <si>
+    <t>MatchSync Patient Self Identified Gender</t>
+  </si>
+  <si>
+    <t>The MatchSync Patient whose data is included in the bundle (optional).</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msGenderIdentity.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msGenderIdentity.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msGenderIdentity.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msGenderIdentity.link</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msGenderIdentity.fullUrl</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msGenderIdentity.resource</t>
+  </si>
+  <si>
+    <t>Vital Signs
+MeasurementResultsTests</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Observation {http://fhir.nmdp.org/ig/matchsync/StructureDefinition/ms-patient-gender-identity-observation}
+</t>
+  </si>
+  <si>
+    <t>Measurements and simple assertions</t>
+  </si>
+  <si>
+    <t>Measurements and simple assertions made about a patient, device or other subject.</t>
+  </si>
+  <si>
+    <t>Used for simple observations such as device measurements, laboratory atomic results, vital signs, height, weight, smoking status, comments, etc.  Other resources are used to provide context for observations such as laboratory reports, etc.</t>
+  </si>
+  <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}</t>
+  </si>
+  <si>
+    <t>OBX</t>
+  </si>
+  <si>
+    <t>Observation[classCode=OBS, moodCode=EVN]</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msGenderIdentity.search</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msGenderIdentity.search.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msGenderIdentity.search.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msGenderIdentity.search.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msGenderIdentity.search.mode</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msGenderIdentity.search.score</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msGenderIdentity.request</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msGenderIdentity.request.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msGenderIdentity.request.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msGenderIdentity.request.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msGenderIdentity.request.method</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msGenderIdentity.request.url</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msGenderIdentity.request.ifNoneMatch</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msGenderIdentity.request.ifModifiedSince</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msGenderIdentity.request.ifMatch</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msGenderIdentity.request.ifNoneExist</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msGenderIdentity.response</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msGenderIdentity.response.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msGenderIdentity.response.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msGenderIdentity.response.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msGenderIdentity.response.status</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msGenderIdentity.response.location</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msGenderIdentity.response.etag</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msGenderIdentity.response.lastModified</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msGenderIdentity.response.outcome</t>
+  </si>
+  <si>
     <t>Bundle.entry:msPractitionerRole</t>
   </si>
   <si>
@@ -1779,31 +1911,8 @@
     <t>Bundle.entry:msObsRh.resource</t>
   </si>
   <si>
-    <t>Vital Signs
-MeasurementResultsTests</t>
-  </si>
-  <si>
     <t xml:space="preserve">Observation {http://fhir.nmdp.org/ig/matchsync/StructureDefinition/ms-rhstatus-observation}
 </t>
-  </si>
-  <si>
-    <t>Measurements and simple assertions</t>
-  </si>
-  <si>
-    <t>Measurements and simple assertions made about a patient, device or other subject.</t>
-  </si>
-  <si>
-    <t>Used for simple observations such as device measurements, laboratory atomic results, vital signs, height, weight, smoking status, comments, etc.  Other resources are used to provide context for observations such as laboratory reports, etc.</t>
-  </si>
-  <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}</t>
-  </si>
-  <si>
-    <t>OBX</t>
-  </si>
-  <si>
-    <t>Observation[classCode=OBS, moodCode=EVN]</t>
   </si>
   <si>
     <t>Bundle.entry:msObsRh.search</t>
@@ -2994,7 +3103,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN481"/>
+  <dimension ref="A1:AN513"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3013,7 +3122,7 @@
     <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="96.4140625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="100.42578125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -17582,7 +17691,7 @@
         <v>76</v>
       </c>
       <c r="G129" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H129" t="s" s="2">
         <v>86</v>
@@ -18255,7 +18364,7 @@
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
-        <v>75</v>
+        <v>451</v>
       </c>
       <c r="E135" s="2"/>
       <c r="F135" t="s" s="2">
@@ -18274,15 +18383,17 @@
         <v>75</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="N135" s="2"/>
+        <v>454</v>
+      </c>
+      <c r="N135" t="s" s="2">
+        <v>455</v>
+      </c>
       <c r="O135" s="2"/>
       <c r="P135" t="s" s="2">
         <v>75</v>
@@ -18343,13 +18454,13 @@
         <v>75</v>
       </c>
       <c r="AJ135" t="s" s="2">
-        <v>372</v>
+        <v>456</v>
       </c>
       <c r="AK135" t="s" s="2">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="AL135" t="s" s="2">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="AM135" t="s" s="2">
         <v>75</v>
@@ -18360,7 +18471,7 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="B136" t="s" s="2">
         <v>288</v>
@@ -18472,7 +18583,7 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="B137" t="s" s="2">
         <v>292</v>
@@ -18584,7 +18695,7 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="B138" t="s" s="2">
         <v>293</v>
@@ -18698,7 +18809,7 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="B139" t="s" s="2">
         <v>294</v>
@@ -18814,7 +18925,7 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="B140" t="s" s="2">
         <v>295</v>
@@ -18928,7 +19039,7 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="B141" t="s" s="2">
         <v>301</v>
@@ -19042,7 +19153,7 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="B142" t="s" s="2">
         <v>306</v>
@@ -19154,7 +19265,7 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="B143" t="s" s="2">
         <v>310</v>
@@ -19266,7 +19377,7 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="B144" t="s" s="2">
         <v>311</v>
@@ -19380,7 +19491,7 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="B145" t="s" s="2">
         <v>312</v>
@@ -19496,7 +19607,7 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="B146" t="s" s="2">
         <v>313</v>
@@ -19608,7 +19719,7 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="B147" t="s" s="2">
         <v>318</v>
@@ -19722,7 +19833,7 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="B148" t="s" s="2">
         <v>322</v>
@@ -19834,7 +19945,7 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="B149" t="s" s="2">
         <v>325</v>
@@ -19946,7 +20057,7 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="B150" t="s" s="2">
         <v>327</v>
@@ -20058,7 +20169,7 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="B151" t="s" s="2">
         <v>330</v>
@@ -20170,7 +20281,7 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="B152" t="s" s="2">
         <v>333</v>
@@ -20282,7 +20393,7 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="B153" t="s" s="2">
         <v>337</v>
@@ -20394,7 +20505,7 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="B154" t="s" s="2">
         <v>338</v>
@@ -20508,7 +20619,7 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="B155" t="s" s="2">
         <v>339</v>
@@ -20624,7 +20735,7 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="B156" t="s" s="2">
         <v>340</v>
@@ -20736,7 +20847,7 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="B157" t="s" s="2">
         <v>343</v>
@@ -20848,7 +20959,7 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="B158" t="s" s="2">
         <v>346</v>
@@ -20962,7 +21073,7 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="B159" t="s" s="2">
         <v>350</v>
@@ -21076,7 +21187,7 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="B160" t="s" s="2">
         <v>354</v>
@@ -21190,13 +21301,13 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="B161" t="s" s="2">
         <v>267</v>
       </c>
       <c r="C161" t="s" s="2">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="D161" t="s" s="2">
         <v>75</v>
@@ -21221,10 +21332,10 @@
         <v>249</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="N161" s="2"/>
       <c r="O161" s="2"/>
@@ -21304,7 +21415,7 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="B162" t="s" s="2">
         <v>274</v>
@@ -21416,7 +21527,7 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="B163" t="s" s="2">
         <v>275</v>
@@ -21530,7 +21641,7 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B164" t="s" s="2">
         <v>276</v>
@@ -21646,7 +21757,7 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="B165" t="s" s="2">
         <v>277</v>
@@ -21672,7 +21783,7 @@
         <v>86</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="L165" t="s" s="2">
         <v>278</v>
@@ -21758,7 +21869,7 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="B166" t="s" s="2">
         <v>280</v>
@@ -21872,7 +21983,7 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="B167" t="s" s="2">
         <v>284</v>
@@ -21898,13 +22009,13 @@
         <v>75</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="N167" s="2"/>
       <c r="O167" s="2"/>
@@ -21970,10 +22081,10 @@
         <v>372</v>
       </c>
       <c r="AK167" t="s" s="2">
-        <v>454</v>
+        <v>497</v>
       </c>
       <c r="AL167" t="s" s="2">
-        <v>455</v>
+        <v>498</v>
       </c>
       <c r="AM167" t="s" s="2">
         <v>75</v>
@@ -21984,7 +22095,7 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="B168" t="s" s="2">
         <v>288</v>
@@ -22096,7 +22207,7 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="B169" t="s" s="2">
         <v>292</v>
@@ -22208,7 +22319,7 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="B170" t="s" s="2">
         <v>293</v>
@@ -22322,7 +22433,7 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="B171" t="s" s="2">
         <v>294</v>
@@ -22438,7 +22549,7 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="B172" t="s" s="2">
         <v>295</v>
@@ -22552,7 +22663,7 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="B173" t="s" s="2">
         <v>301</v>
@@ -22666,7 +22777,7 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="B174" t="s" s="2">
         <v>306</v>
@@ -22778,7 +22889,7 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="B175" t="s" s="2">
         <v>310</v>
@@ -22890,7 +23001,7 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="B176" t="s" s="2">
         <v>311</v>
@@ -23004,7 +23115,7 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="B177" t="s" s="2">
         <v>312</v>
@@ -23120,7 +23231,7 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="B178" t="s" s="2">
         <v>313</v>
@@ -23232,7 +23343,7 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="B179" t="s" s="2">
         <v>318</v>
@@ -23346,7 +23457,7 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="B180" t="s" s="2">
         <v>322</v>
@@ -23458,7 +23569,7 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="B181" t="s" s="2">
         <v>325</v>
@@ -23570,7 +23681,7 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="B182" t="s" s="2">
         <v>327</v>
@@ -23682,7 +23793,7 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="B183" t="s" s="2">
         <v>330</v>
@@ -23794,7 +23905,7 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="B184" t="s" s="2">
         <v>333</v>
@@ -23906,7 +24017,7 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="B185" t="s" s="2">
         <v>337</v>
@@ -24018,7 +24129,7 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="B186" t="s" s="2">
         <v>338</v>
@@ -24132,7 +24243,7 @@
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="B187" t="s" s="2">
         <v>339</v>
@@ -24248,7 +24359,7 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="B188" t="s" s="2">
         <v>340</v>
@@ -24360,7 +24471,7 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="B189" t="s" s="2">
         <v>343</v>
@@ -24472,7 +24583,7 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="B190" t="s" s="2">
         <v>346</v>
@@ -24586,7 +24697,7 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="B191" t="s" s="2">
         <v>350</v>
@@ -24700,7 +24811,7 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="B192" t="s" s="2">
         <v>354</v>
@@ -24814,13 +24925,13 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="B193" t="s" s="2">
         <v>267</v>
       </c>
       <c r="C193" t="s" s="2">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="D193" t="s" s="2">
         <v>75</v>
@@ -24830,7 +24941,7 @@
         <v>76</v>
       </c>
       <c r="G193" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H193" t="s" s="2">
         <v>86</v>
@@ -24845,10 +24956,10 @@
         <v>249</v>
       </c>
       <c r="L193" t="s" s="2">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="M193" t="s" s="2">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="N193" s="2"/>
       <c r="O193" s="2"/>
@@ -24928,7 +25039,7 @@
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="B194" t="s" s="2">
         <v>274</v>
@@ -25040,7 +25151,7 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="B195" t="s" s="2">
         <v>275</v>
@@ -25154,7 +25265,7 @@
     </row>
     <row r="196" hidden="true">
       <c r="A196" t="s" s="2">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="B196" t="s" s="2">
         <v>276</v>
@@ -25270,7 +25381,7 @@
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="B197" t="s" s="2">
         <v>277</v>
@@ -25296,7 +25407,7 @@
         <v>86</v>
       </c>
       <c r="K197" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="L197" t="s" s="2">
         <v>278</v>
@@ -25382,7 +25493,7 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="B198" t="s" s="2">
         <v>280</v>
@@ -25496,7 +25607,7 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="B199" t="s" s="2">
         <v>284</v>
@@ -25522,13 +25633,13 @@
         <v>75</v>
       </c>
       <c r="K199" t="s" s="2">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="L199" t="s" s="2">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="M199" t="s" s="2">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="N199" s="2"/>
       <c r="O199" s="2"/>
@@ -25591,13 +25702,13 @@
         <v>75</v>
       </c>
       <c r="AJ199" t="s" s="2">
-        <v>531</v>
+        <v>372</v>
       </c>
       <c r="AK199" t="s" s="2">
-        <v>532</v>
+        <v>497</v>
       </c>
       <c r="AL199" t="s" s="2">
-        <v>533</v>
+        <v>498</v>
       </c>
       <c r="AM199" t="s" s="2">
         <v>75</v>
@@ -25608,7 +25719,7 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="B200" t="s" s="2">
         <v>288</v>
@@ -25720,7 +25831,7 @@
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="B201" t="s" s="2">
         <v>292</v>
@@ -25832,7 +25943,7 @@
     </row>
     <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="B202" t="s" s="2">
         <v>293</v>
@@ -25946,7 +26057,7 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="B203" t="s" s="2">
         <v>294</v>
@@ -26062,7 +26173,7 @@
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="B204" t="s" s="2">
         <v>295</v>
@@ -26176,7 +26287,7 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="B205" t="s" s="2">
         <v>301</v>
@@ -26290,7 +26401,7 @@
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="B206" t="s" s="2">
         <v>306</v>
@@ -26402,7 +26513,7 @@
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="B207" t="s" s="2">
         <v>310</v>
@@ -26514,7 +26625,7 @@
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="B208" t="s" s="2">
         <v>311</v>
@@ -26628,7 +26739,7 @@
     </row>
     <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="B209" t="s" s="2">
         <v>312</v>
@@ -26744,7 +26855,7 @@
     </row>
     <row r="210" hidden="true">
       <c r="A210" t="s" s="2">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="B210" t="s" s="2">
         <v>313</v>
@@ -26856,7 +26967,7 @@
     </row>
     <row r="211" hidden="true">
       <c r="A211" t="s" s="2">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="B211" t="s" s="2">
         <v>318</v>
@@ -26970,7 +27081,7 @@
     </row>
     <row r="212" hidden="true">
       <c r="A212" t="s" s="2">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="B212" t="s" s="2">
         <v>322</v>
@@ -27082,7 +27193,7 @@
     </row>
     <row r="213" hidden="true">
       <c r="A213" t="s" s="2">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="B213" t="s" s="2">
         <v>325</v>
@@ -27194,7 +27305,7 @@
     </row>
     <row r="214" hidden="true">
       <c r="A214" t="s" s="2">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="B214" t="s" s="2">
         <v>327</v>
@@ -27306,7 +27417,7 @@
     </row>
     <row r="215" hidden="true">
       <c r="A215" t="s" s="2">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="B215" t="s" s="2">
         <v>330</v>
@@ -27418,7 +27529,7 @@
     </row>
     <row r="216" hidden="true">
       <c r="A216" t="s" s="2">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="B216" t="s" s="2">
         <v>333</v>
@@ -27530,7 +27641,7 @@
     </row>
     <row r="217" hidden="true">
       <c r="A217" t="s" s="2">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="B217" t="s" s="2">
         <v>337</v>
@@ -27642,7 +27753,7 @@
     </row>
     <row r="218" hidden="true">
       <c r="A218" t="s" s="2">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="B218" t="s" s="2">
         <v>338</v>
@@ -27756,7 +27867,7 @@
     </row>
     <row r="219" hidden="true">
       <c r="A219" t="s" s="2">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="B219" t="s" s="2">
         <v>339</v>
@@ -27872,7 +27983,7 @@
     </row>
     <row r="220" hidden="true">
       <c r="A220" t="s" s="2">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="B220" t="s" s="2">
         <v>340</v>
@@ -27984,7 +28095,7 @@
     </row>
     <row r="221" hidden="true">
       <c r="A221" t="s" s="2">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="B221" t="s" s="2">
         <v>343</v>
@@ -28096,7 +28207,7 @@
     </row>
     <row r="222" hidden="true">
       <c r="A222" t="s" s="2">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="B222" t="s" s="2">
         <v>346</v>
@@ -28210,7 +28321,7 @@
     </row>
     <row r="223" hidden="true">
       <c r="A223" t="s" s="2">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="B223" t="s" s="2">
         <v>350</v>
@@ -28324,7 +28435,7 @@
     </row>
     <row r="224" hidden="true">
       <c r="A224" t="s" s="2">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="B224" t="s" s="2">
         <v>354</v>
@@ -28438,13 +28549,13 @@
     </row>
     <row r="225" hidden="true">
       <c r="A225" t="s" s="2">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="B225" t="s" s="2">
         <v>267</v>
       </c>
       <c r="C225" t="s" s="2">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="D225" t="s" s="2">
         <v>75</v>
@@ -28469,10 +28580,10 @@
         <v>249</v>
       </c>
       <c r="L225" t="s" s="2">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="M225" t="s" s="2">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="N225" s="2"/>
       <c r="O225" s="2"/>
@@ -28552,7 +28663,7 @@
     </row>
     <row r="226" hidden="true">
       <c r="A226" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="B226" t="s" s="2">
         <v>274</v>
@@ -28664,7 +28775,7 @@
     </row>
     <row r="227" hidden="true">
       <c r="A227" t="s" s="2">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="B227" t="s" s="2">
         <v>275</v>
@@ -28778,7 +28889,7 @@
     </row>
     <row r="228" hidden="true">
       <c r="A228" t="s" s="2">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="B228" t="s" s="2">
         <v>276</v>
@@ -28894,7 +29005,7 @@
     </row>
     <row r="229" hidden="true">
       <c r="A229" t="s" s="2">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="B229" t="s" s="2">
         <v>277</v>
@@ -28920,7 +29031,7 @@
         <v>86</v>
       </c>
       <c r="K229" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="L229" t="s" s="2">
         <v>278</v>
@@ -29006,7 +29117,7 @@
     </row>
     <row r="230" hidden="true">
       <c r="A230" t="s" s="2">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="B230" t="s" s="2">
         <v>280</v>
@@ -29120,14 +29231,14 @@
     </row>
     <row r="231" hidden="true">
       <c r="A231" t="s" s="2">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="B231" t="s" s="2">
         <v>284</v>
       </c>
       <c r="C231" s="2"/>
       <c r="D231" t="s" s="2">
-        <v>569</v>
+        <v>75</v>
       </c>
       <c r="E231" s="2"/>
       <c r="F231" t="s" s="2">
@@ -29146,17 +29257,15 @@
         <v>75</v>
       </c>
       <c r="K231" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="L231" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="M231" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="N231" t="s" s="2">
         <v>573</v>
       </c>
+      <c r="N231" s="2"/>
       <c r="O231" s="2"/>
       <c r="P231" t="s" s="2">
         <v>75</v>
@@ -32753,7 +32862,7 @@
       </c>
       <c r="C263" s="2"/>
       <c r="D263" t="s" s="2">
-        <v>569</v>
+        <v>451</v>
       </c>
       <c r="E263" s="2"/>
       <c r="F263" t="s" s="2">
@@ -32775,13 +32884,13 @@
         <v>612</v>
       </c>
       <c r="L263" t="s" s="2">
-        <v>571</v>
+        <v>453</v>
       </c>
       <c r="M263" t="s" s="2">
-        <v>572</v>
+        <v>454</v>
       </c>
       <c r="N263" t="s" s="2">
-        <v>573</v>
+        <v>455</v>
       </c>
       <c r="O263" s="2"/>
       <c r="P263" t="s" s="2">
@@ -32843,13 +32952,13 @@
         <v>75</v>
       </c>
       <c r="AJ263" t="s" s="2">
-        <v>574</v>
+        <v>456</v>
       </c>
       <c r="AK263" t="s" s="2">
-        <v>575</v>
+        <v>457</v>
       </c>
       <c r="AL263" t="s" s="2">
-        <v>576</v>
+        <v>458</v>
       </c>
       <c r="AM263" t="s" s="2">
         <v>75</v>
@@ -36379,7 +36488,7 @@
       </c>
       <c r="C295" s="2"/>
       <c r="D295" t="s" s="2">
-        <v>569</v>
+        <v>451</v>
       </c>
       <c r="E295" s="2"/>
       <c r="F295" t="s" s="2">
@@ -36401,13 +36510,13 @@
         <v>648</v>
       </c>
       <c r="L295" t="s" s="2">
-        <v>571</v>
+        <v>453</v>
       </c>
       <c r="M295" t="s" s="2">
-        <v>572</v>
+        <v>454</v>
       </c>
       <c r="N295" t="s" s="2">
-        <v>573</v>
+        <v>455</v>
       </c>
       <c r="O295" s="2"/>
       <c r="P295" t="s" s="2">
@@ -36469,13 +36578,13 @@
         <v>75</v>
       </c>
       <c r="AJ295" t="s" s="2">
-        <v>574</v>
+        <v>456</v>
       </c>
       <c r="AK295" t="s" s="2">
-        <v>575</v>
+        <v>457</v>
       </c>
       <c r="AL295" t="s" s="2">
-        <v>576</v>
+        <v>458</v>
       </c>
       <c r="AM295" t="s" s="2">
         <v>75</v>
@@ -40005,7 +40114,7 @@
       </c>
       <c r="C327" s="2"/>
       <c r="D327" t="s" s="2">
-        <v>569</v>
+        <v>451</v>
       </c>
       <c r="E327" s="2"/>
       <c r="F327" t="s" s="2">
@@ -40027,13 +40136,13 @@
         <v>684</v>
       </c>
       <c r="L327" t="s" s="2">
-        <v>571</v>
+        <v>453</v>
       </c>
       <c r="M327" t="s" s="2">
-        <v>572</v>
+        <v>454</v>
       </c>
       <c r="N327" t="s" s="2">
-        <v>573</v>
+        <v>455</v>
       </c>
       <c r="O327" s="2"/>
       <c r="P327" t="s" s="2">
@@ -40095,13 +40204,13 @@
         <v>75</v>
       </c>
       <c r="AJ327" t="s" s="2">
-        <v>574</v>
+        <v>456</v>
       </c>
       <c r="AK327" t="s" s="2">
-        <v>575</v>
+        <v>457</v>
       </c>
       <c r="AL327" t="s" s="2">
-        <v>576</v>
+        <v>458</v>
       </c>
       <c r="AM327" t="s" s="2">
         <v>75</v>
@@ -42976,7 +43085,7 @@
         <v>712</v>
       </c>
       <c r="M353" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="N353" s="2"/>
       <c r="O353" s="2"/>
@@ -43056,7 +43165,7 @@
     </row>
     <row r="354" hidden="true">
       <c r="A354" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B354" t="s" s="2">
         <v>274</v>
@@ -43168,7 +43277,7 @@
     </row>
     <row r="355" hidden="true">
       <c r="A355" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B355" t="s" s="2">
         <v>275</v>
@@ -43282,7 +43391,7 @@
     </row>
     <row r="356" hidden="true">
       <c r="A356" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B356" t="s" s="2">
         <v>276</v>
@@ -43398,7 +43507,7 @@
     </row>
     <row r="357" hidden="true">
       <c r="A357" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B357" t="s" s="2">
         <v>277</v>
@@ -43510,7 +43619,7 @@
     </row>
     <row r="358" hidden="true">
       <c r="A358" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B358" t="s" s="2">
         <v>280</v>
@@ -43624,14 +43733,14 @@
     </row>
     <row r="359" hidden="true">
       <c r="A359" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B359" t="s" s="2">
         <v>284</v>
       </c>
       <c r="C359" s="2"/>
       <c r="D359" t="s" s="2">
-        <v>569</v>
+        <v>451</v>
       </c>
       <c r="E359" s="2"/>
       <c r="F359" t="s" s="2">
@@ -43650,16 +43759,16 @@
         <v>75</v>
       </c>
       <c r="K359" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="L359" t="s" s="2">
-        <v>571</v>
+        <v>453</v>
       </c>
       <c r="M359" t="s" s="2">
-        <v>572</v>
+        <v>454</v>
       </c>
       <c r="N359" t="s" s="2">
-        <v>573</v>
+        <v>455</v>
       </c>
       <c r="O359" s="2"/>
       <c r="P359" t="s" s="2">
@@ -43721,13 +43830,13 @@
         <v>75</v>
       </c>
       <c r="AJ359" t="s" s="2">
-        <v>574</v>
+        <v>456</v>
       </c>
       <c r="AK359" t="s" s="2">
-        <v>575</v>
+        <v>457</v>
       </c>
       <c r="AL359" t="s" s="2">
-        <v>576</v>
+        <v>458</v>
       </c>
       <c r="AM359" t="s" s="2">
         <v>75</v>
@@ -43738,7 +43847,7 @@
     </row>
     <row r="360" hidden="true">
       <c r="A360" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B360" t="s" s="2">
         <v>288</v>
@@ -43850,7 +43959,7 @@
     </row>
     <row r="361" hidden="true">
       <c r="A361" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B361" t="s" s="2">
         <v>292</v>
@@ -43962,7 +44071,7 @@
     </row>
     <row r="362" hidden="true">
       <c r="A362" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B362" t="s" s="2">
         <v>293</v>
@@ -44076,7 +44185,7 @@
     </row>
     <row r="363" hidden="true">
       <c r="A363" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B363" t="s" s="2">
         <v>294</v>
@@ -44192,7 +44301,7 @@
     </row>
     <row r="364" hidden="true">
       <c r="A364" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B364" t="s" s="2">
         <v>295</v>
@@ -44306,7 +44415,7 @@
     </row>
     <row r="365" hidden="true">
       <c r="A365" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B365" t="s" s="2">
         <v>301</v>
@@ -44420,7 +44529,7 @@
     </row>
     <row r="366" hidden="true">
       <c r="A366" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B366" t="s" s="2">
         <v>306</v>
@@ -44532,7 +44641,7 @@
     </row>
     <row r="367" hidden="true">
       <c r="A367" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B367" t="s" s="2">
         <v>310</v>
@@ -44644,7 +44753,7 @@
     </row>
     <row r="368" hidden="true">
       <c r="A368" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B368" t="s" s="2">
         <v>311</v>
@@ -44758,7 +44867,7 @@
     </row>
     <row r="369" hidden="true">
       <c r="A369" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B369" t="s" s="2">
         <v>312</v>
@@ -44874,7 +44983,7 @@
     </row>
     <row r="370" hidden="true">
       <c r="A370" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B370" t="s" s="2">
         <v>313</v>
@@ -44986,7 +45095,7 @@
     </row>
     <row r="371" hidden="true">
       <c r="A371" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B371" t="s" s="2">
         <v>318</v>
@@ -45100,7 +45209,7 @@
     </row>
     <row r="372" hidden="true">
       <c r="A372" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B372" t="s" s="2">
         <v>322</v>
@@ -45212,7 +45321,7 @@
     </row>
     <row r="373" hidden="true">
       <c r="A373" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B373" t="s" s="2">
         <v>325</v>
@@ -45324,7 +45433,7 @@
     </row>
     <row r="374" hidden="true">
       <c r="A374" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B374" t="s" s="2">
         <v>327</v>
@@ -45436,7 +45545,7 @@
     </row>
     <row r="375" hidden="true">
       <c r="A375" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B375" t="s" s="2">
         <v>330</v>
@@ -45548,7 +45657,7 @@
     </row>
     <row r="376" hidden="true">
       <c r="A376" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B376" t="s" s="2">
         <v>333</v>
@@ -45660,7 +45769,7 @@
     </row>
     <row r="377" hidden="true">
       <c r="A377" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B377" t="s" s="2">
         <v>337</v>
@@ -45772,7 +45881,7 @@
     </row>
     <row r="378" hidden="true">
       <c r="A378" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B378" t="s" s="2">
         <v>338</v>
@@ -45886,7 +45995,7 @@
     </row>
     <row r="379" hidden="true">
       <c r="A379" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B379" t="s" s="2">
         <v>339</v>
@@ -46002,7 +46111,7 @@
     </row>
     <row r="380" hidden="true">
       <c r="A380" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B380" t="s" s="2">
         <v>340</v>
@@ -46114,7 +46223,7 @@
     </row>
     <row r="381" hidden="true">
       <c r="A381" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B381" t="s" s="2">
         <v>343</v>
@@ -46226,7 +46335,7 @@
     </row>
     <row r="382" hidden="true">
       <c r="A382" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B382" t="s" s="2">
         <v>346</v>
@@ -46340,7 +46449,7 @@
     </row>
     <row r="383" hidden="true">
       <c r="A383" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B383" t="s" s="2">
         <v>350</v>
@@ -46454,7 +46563,7 @@
     </row>
     <row r="384" hidden="true">
       <c r="A384" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="B384" t="s" s="2">
         <v>354</v>
@@ -46568,13 +46677,13 @@
     </row>
     <row r="385" hidden="true">
       <c r="A385" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B385" t="s" s="2">
         <v>267</v>
       </c>
       <c r="C385" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="D385" t="s" s="2">
         <v>75</v>
@@ -46599,7 +46708,7 @@
         <v>249</v>
       </c>
       <c r="L385" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="M385" t="s" s="2">
         <v>748</v>
@@ -47257,7 +47366,7 @@
       </c>
       <c r="C391" s="2"/>
       <c r="D391" t="s" s="2">
-        <v>569</v>
+        <v>451</v>
       </c>
       <c r="E391" s="2"/>
       <c r="F391" t="s" s="2">
@@ -47279,13 +47388,13 @@
         <v>755</v>
       </c>
       <c r="L391" t="s" s="2">
-        <v>756</v>
+        <v>453</v>
       </c>
       <c r="M391" t="s" s="2">
-        <v>757</v>
+        <v>454</v>
       </c>
       <c r="N391" t="s" s="2">
-        <v>573</v>
+        <v>455</v>
       </c>
       <c r="O391" s="2"/>
       <c r="P391" t="s" s="2">
@@ -47347,13 +47456,13 @@
         <v>75</v>
       </c>
       <c r="AJ391" t="s" s="2">
-        <v>758</v>
+        <v>456</v>
       </c>
       <c r="AK391" t="s" s="2">
-        <v>575</v>
+        <v>457</v>
       </c>
       <c r="AL391" t="s" s="2">
-        <v>576</v>
+        <v>458</v>
       </c>
       <c r="AM391" t="s" s="2">
         <v>75</v>
@@ -47364,7 +47473,7 @@
     </row>
     <row r="392" hidden="true">
       <c r="A392" t="s" s="2">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="B392" t="s" s="2">
         <v>288</v>
@@ -47476,7 +47585,7 @@
     </row>
     <row r="393" hidden="true">
       <c r="A393" t="s" s="2">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="B393" t="s" s="2">
         <v>292</v>
@@ -47588,7 +47697,7 @@
     </row>
     <row r="394" hidden="true">
       <c r="A394" t="s" s="2">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="B394" t="s" s="2">
         <v>293</v>
@@ -47702,7 +47811,7 @@
     </row>
     <row r="395" hidden="true">
       <c r="A395" t="s" s="2">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="B395" t="s" s="2">
         <v>294</v>
@@ -47818,7 +47927,7 @@
     </row>
     <row r="396" hidden="true">
       <c r="A396" t="s" s="2">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="B396" t="s" s="2">
         <v>295</v>
@@ -47932,7 +48041,7 @@
     </row>
     <row r="397" hidden="true">
       <c r="A397" t="s" s="2">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="B397" t="s" s="2">
         <v>301</v>
@@ -48046,7 +48155,7 @@
     </row>
     <row r="398" hidden="true">
       <c r="A398" t="s" s="2">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="B398" t="s" s="2">
         <v>306</v>
@@ -48158,7 +48267,7 @@
     </row>
     <row r="399" hidden="true">
       <c r="A399" t="s" s="2">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="B399" t="s" s="2">
         <v>310</v>
@@ -48270,7 +48379,7 @@
     </row>
     <row r="400" hidden="true">
       <c r="A400" t="s" s="2">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="B400" t="s" s="2">
         <v>311</v>
@@ -48384,7 +48493,7 @@
     </row>
     <row r="401" hidden="true">
       <c r="A401" t="s" s="2">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="B401" t="s" s="2">
         <v>312</v>
@@ -48500,7 +48609,7 @@
     </row>
     <row r="402" hidden="true">
       <c r="A402" t="s" s="2">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="B402" t="s" s="2">
         <v>313</v>
@@ -48612,7 +48721,7 @@
     </row>
     <row r="403" hidden="true">
       <c r="A403" t="s" s="2">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="B403" t="s" s="2">
         <v>318</v>
@@ -48726,7 +48835,7 @@
     </row>
     <row r="404" hidden="true">
       <c r="A404" t="s" s="2">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="B404" t="s" s="2">
         <v>322</v>
@@ -48838,7 +48947,7 @@
     </row>
     <row r="405" hidden="true">
       <c r="A405" t="s" s="2">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="B405" t="s" s="2">
         <v>325</v>
@@ -48950,7 +49059,7 @@
     </row>
     <row r="406" hidden="true">
       <c r="A406" t="s" s="2">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="B406" t="s" s="2">
         <v>327</v>
@@ -49062,7 +49171,7 @@
     </row>
     <row r="407" hidden="true">
       <c r="A407" t="s" s="2">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="B407" t="s" s="2">
         <v>330</v>
@@ -49174,7 +49283,7 @@
     </row>
     <row r="408" hidden="true">
       <c r="A408" t="s" s="2">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="B408" t="s" s="2">
         <v>333</v>
@@ -49286,7 +49395,7 @@
     </row>
     <row r="409" hidden="true">
       <c r="A409" t="s" s="2">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="B409" t="s" s="2">
         <v>337</v>
@@ -49398,7 +49507,7 @@
     </row>
     <row r="410" hidden="true">
       <c r="A410" t="s" s="2">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="B410" t="s" s="2">
         <v>338</v>
@@ -49512,7 +49621,7 @@
     </row>
     <row r="411" hidden="true">
       <c r="A411" t="s" s="2">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="B411" t="s" s="2">
         <v>339</v>
@@ -49628,7 +49737,7 @@
     </row>
     <row r="412" hidden="true">
       <c r="A412" t="s" s="2">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="B412" t="s" s="2">
         <v>340</v>
@@ -49740,7 +49849,7 @@
     </row>
     <row r="413" hidden="true">
       <c r="A413" t="s" s="2">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="B413" t="s" s="2">
         <v>343</v>
@@ -49852,7 +49961,7 @@
     </row>
     <row r="414" hidden="true">
       <c r="A414" t="s" s="2">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="B414" t="s" s="2">
         <v>346</v>
@@ -49966,7 +50075,7 @@
     </row>
     <row r="415" hidden="true">
       <c r="A415" t="s" s="2">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="B415" t="s" s="2">
         <v>350</v>
@@ -50080,7 +50189,7 @@
     </row>
     <row r="416" hidden="true">
       <c r="A416" t="s" s="2">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="B416" t="s" s="2">
         <v>354</v>
@@ -50194,13 +50303,13 @@
     </row>
     <row r="417" hidden="true">
       <c r="A417" t="s" s="2">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="B417" t="s" s="2">
         <v>267</v>
       </c>
       <c r="C417" t="s" s="2">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="D417" t="s" s="2">
         <v>75</v>
@@ -50225,10 +50334,10 @@
         <v>249</v>
       </c>
       <c r="L417" t="s" s="2">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="M417" t="s" s="2">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="N417" s="2"/>
       <c r="O417" s="2"/>
@@ -50308,7 +50417,7 @@
     </row>
     <row r="418" hidden="true">
       <c r="A418" t="s" s="2">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="B418" t="s" s="2">
         <v>274</v>
@@ -50420,7 +50529,7 @@
     </row>
     <row r="419" hidden="true">
       <c r="A419" t="s" s="2">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="B419" t="s" s="2">
         <v>275</v>
@@ -50534,7 +50643,7 @@
     </row>
     <row r="420" hidden="true">
       <c r="A420" t="s" s="2">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="B420" t="s" s="2">
         <v>276</v>
@@ -50650,7 +50759,7 @@
     </row>
     <row r="421" hidden="true">
       <c r="A421" t="s" s="2">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="B421" t="s" s="2">
         <v>277</v>
@@ -50762,7 +50871,7 @@
     </row>
     <row r="422" hidden="true">
       <c r="A422" t="s" s="2">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B422" t="s" s="2">
         <v>280</v>
@@ -50876,14 +50985,14 @@
     </row>
     <row r="423" hidden="true">
       <c r="A423" t="s" s="2">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="B423" t="s" s="2">
         <v>284</v>
       </c>
       <c r="C423" s="2"/>
       <c r="D423" t="s" s="2">
-        <v>569</v>
+        <v>451</v>
       </c>
       <c r="E423" s="2"/>
       <c r="F423" t="s" s="2">
@@ -50902,16 +51011,16 @@
         <v>75</v>
       </c>
       <c r="K423" t="s" s="2">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="L423" t="s" s="2">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="M423" t="s" s="2">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="N423" t="s" s="2">
-        <v>573</v>
+        <v>455</v>
       </c>
       <c r="O423" s="2"/>
       <c r="P423" t="s" s="2">
@@ -50973,13 +51082,13 @@
         <v>75</v>
       </c>
       <c r="AJ423" t="s" s="2">
-        <v>758</v>
+        <v>794</v>
       </c>
       <c r="AK423" t="s" s="2">
-        <v>575</v>
+        <v>457</v>
       </c>
       <c r="AL423" t="s" s="2">
-        <v>576</v>
+        <v>458</v>
       </c>
       <c r="AM423" t="s" s="2">
         <v>75</v>
@@ -50990,7 +51099,7 @@
     </row>
     <row r="424" hidden="true">
       <c r="A424" t="s" s="2">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="B424" t="s" s="2">
         <v>288</v>
@@ -51102,7 +51211,7 @@
     </row>
     <row r="425" hidden="true">
       <c r="A425" t="s" s="2">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B425" t="s" s="2">
         <v>292</v>
@@ -51214,7 +51323,7 @@
     </row>
     <row r="426" hidden="true">
       <c r="A426" t="s" s="2">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="B426" t="s" s="2">
         <v>293</v>
@@ -51328,7 +51437,7 @@
     </row>
     <row r="427" hidden="true">
       <c r="A427" t="s" s="2">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="B427" t="s" s="2">
         <v>294</v>
@@ -51444,7 +51553,7 @@
     </row>
     <row r="428" hidden="true">
       <c r="A428" t="s" s="2">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B428" t="s" s="2">
         <v>295</v>
@@ -51558,7 +51667,7 @@
     </row>
     <row r="429" hidden="true">
       <c r="A429" t="s" s="2">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="B429" t="s" s="2">
         <v>301</v>
@@ -51672,7 +51781,7 @@
     </row>
     <row r="430" hidden="true">
       <c r="A430" t="s" s="2">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B430" t="s" s="2">
         <v>306</v>
@@ -51784,7 +51893,7 @@
     </row>
     <row r="431" hidden="true">
       <c r="A431" t="s" s="2">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="B431" t="s" s="2">
         <v>310</v>
@@ -51896,7 +52005,7 @@
     </row>
     <row r="432" hidden="true">
       <c r="A432" t="s" s="2">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B432" t="s" s="2">
         <v>311</v>
@@ -52010,7 +52119,7 @@
     </row>
     <row r="433" hidden="true">
       <c r="A433" t="s" s="2">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="B433" t="s" s="2">
         <v>312</v>
@@ -52126,7 +52235,7 @@
     </row>
     <row r="434" hidden="true">
       <c r="A434" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B434" t="s" s="2">
         <v>313</v>
@@ -52238,7 +52347,7 @@
     </row>
     <row r="435" hidden="true">
       <c r="A435" t="s" s="2">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="B435" t="s" s="2">
         <v>318</v>
@@ -52352,7 +52461,7 @@
     </row>
     <row r="436" hidden="true">
       <c r="A436" t="s" s="2">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="B436" t="s" s="2">
         <v>322</v>
@@ -52464,7 +52573,7 @@
     </row>
     <row r="437" hidden="true">
       <c r="A437" t="s" s="2">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="B437" t="s" s="2">
         <v>325</v>
@@ -52576,7 +52685,7 @@
     </row>
     <row r="438" hidden="true">
       <c r="A438" t="s" s="2">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="B438" t="s" s="2">
         <v>327</v>
@@ -52688,7 +52797,7 @@
     </row>
     <row r="439" hidden="true">
       <c r="A439" t="s" s="2">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="B439" t="s" s="2">
         <v>330</v>
@@ -52800,7 +52909,7 @@
     </row>
     <row r="440" hidden="true">
       <c r="A440" t="s" s="2">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="B440" t="s" s="2">
         <v>333</v>
@@ -52912,7 +53021,7 @@
     </row>
     <row r="441" hidden="true">
       <c r="A441" t="s" s="2">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="B441" t="s" s="2">
         <v>337</v>
@@ -53024,7 +53133,7 @@
     </row>
     <row r="442" hidden="true">
       <c r="A442" t="s" s="2">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="B442" t="s" s="2">
         <v>338</v>
@@ -53138,7 +53247,7 @@
     </row>
     <row r="443" hidden="true">
       <c r="A443" t="s" s="2">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="B443" t="s" s="2">
         <v>339</v>
@@ -53254,7 +53363,7 @@
     </row>
     <row r="444" hidden="true">
       <c r="A444" t="s" s="2">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B444" t="s" s="2">
         <v>340</v>
@@ -53366,7 +53475,7 @@
     </row>
     <row r="445" hidden="true">
       <c r="A445" t="s" s="2">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="B445" t="s" s="2">
         <v>343</v>
@@ -53478,7 +53587,7 @@
     </row>
     <row r="446" hidden="true">
       <c r="A446" t="s" s="2">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="B446" t="s" s="2">
         <v>346</v>
@@ -53592,7 +53701,7 @@
     </row>
     <row r="447" hidden="true">
       <c r="A447" t="s" s="2">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B447" t="s" s="2">
         <v>350</v>
@@ -53706,7 +53815,7 @@
     </row>
     <row r="448" hidden="true">
       <c r="A448" t="s" s="2">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="B448" t="s" s="2">
         <v>354</v>
@@ -53820,13 +53929,13 @@
     </row>
     <row r="449" hidden="true">
       <c r="A449" t="s" s="2">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="B449" t="s" s="2">
         <v>267</v>
       </c>
       <c r="C449" t="s" s="2">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="D449" t="s" s="2">
         <v>75</v>
@@ -53851,10 +53960,10 @@
         <v>249</v>
       </c>
       <c r="L449" t="s" s="2">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="M449" t="s" s="2">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="N449" s="2"/>
       <c r="O449" s="2"/>
@@ -53934,7 +54043,7 @@
     </row>
     <row r="450" hidden="true">
       <c r="A450" t="s" s="2">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="B450" t="s" s="2">
         <v>274</v>
@@ -54046,7 +54155,7 @@
     </row>
     <row r="451" hidden="true">
       <c r="A451" t="s" s="2">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="B451" t="s" s="2">
         <v>275</v>
@@ -54160,7 +54269,7 @@
     </row>
     <row r="452" hidden="true">
       <c r="A452" t="s" s="2">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="B452" t="s" s="2">
         <v>276</v>
@@ -54276,7 +54385,7 @@
     </row>
     <row r="453" hidden="true">
       <c r="A453" t="s" s="2">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B453" t="s" s="2">
         <v>277</v>
@@ -54388,7 +54497,7 @@
     </row>
     <row r="454" hidden="true">
       <c r="A454" t="s" s="2">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="B454" t="s" s="2">
         <v>280</v>
@@ -54502,14 +54611,14 @@
     </row>
     <row r="455" hidden="true">
       <c r="A455" t="s" s="2">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="B455" t="s" s="2">
         <v>284</v>
       </c>
       <c r="C455" s="2"/>
       <c r="D455" t="s" s="2">
-        <v>75</v>
+        <v>451</v>
       </c>
       <c r="E455" s="2"/>
       <c r="F455" t="s" s="2">
@@ -54528,15 +54637,17 @@
         <v>75</v>
       </c>
       <c r="K455" t="s" s="2">
+        <v>830</v>
+      </c>
+      <c r="L455" t="s" s="2">
+        <v>831</v>
+      </c>
+      <c r="M455" t="s" s="2">
         <v>832</v>
       </c>
-      <c r="L455" t="s" s="2">
-        <v>833</v>
-      </c>
-      <c r="M455" t="s" s="2">
-        <v>834</v>
-      </c>
-      <c r="N455" s="2"/>
+      <c r="N455" t="s" s="2">
+        <v>455</v>
+      </c>
       <c r="O455" s="2"/>
       <c r="P455" t="s" s="2">
         <v>75</v>
@@ -54597,13 +54708,13 @@
         <v>75</v>
       </c>
       <c r="AJ455" t="s" s="2">
-        <v>372</v>
+        <v>794</v>
       </c>
       <c r="AK455" t="s" s="2">
-        <v>75</v>
+        <v>457</v>
       </c>
       <c r="AL455" t="s" s="2">
-        <v>835</v>
+        <v>458</v>
       </c>
       <c r="AM455" t="s" s="2">
         <v>75</v>
@@ -54614,7 +54725,7 @@
     </row>
     <row r="456" hidden="true">
       <c r="A456" t="s" s="2">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="B456" t="s" s="2">
         <v>288</v>
@@ -54726,7 +54837,7 @@
     </row>
     <row r="457" hidden="true">
       <c r="A457" t="s" s="2">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="B457" t="s" s="2">
         <v>292</v>
@@ -54838,7 +54949,7 @@
     </row>
     <row r="458" hidden="true">
       <c r="A458" t="s" s="2">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="B458" t="s" s="2">
         <v>293</v>
@@ -54952,7 +55063,7 @@
     </row>
     <row r="459" hidden="true">
       <c r="A459" t="s" s="2">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="B459" t="s" s="2">
         <v>294</v>
@@ -55068,7 +55179,7 @@
     </row>
     <row r="460" hidden="true">
       <c r="A460" t="s" s="2">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="B460" t="s" s="2">
         <v>295</v>
@@ -55182,7 +55293,7 @@
     </row>
     <row r="461" hidden="true">
       <c r="A461" t="s" s="2">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="B461" t="s" s="2">
         <v>301</v>
@@ -55296,7 +55407,7 @@
     </row>
     <row r="462" hidden="true">
       <c r="A462" t="s" s="2">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="B462" t="s" s="2">
         <v>306</v>
@@ -55408,7 +55519,7 @@
     </row>
     <row r="463" hidden="true">
       <c r="A463" t="s" s="2">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="B463" t="s" s="2">
         <v>310</v>
@@ -55520,7 +55631,7 @@
     </row>
     <row r="464" hidden="true">
       <c r="A464" t="s" s="2">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="B464" t="s" s="2">
         <v>311</v>
@@ -55634,7 +55745,7 @@
     </row>
     <row r="465" hidden="true">
       <c r="A465" t="s" s="2">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B465" t="s" s="2">
         <v>312</v>
@@ -55750,7 +55861,7 @@
     </row>
     <row r="466" hidden="true">
       <c r="A466" t="s" s="2">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="B466" t="s" s="2">
         <v>313</v>
@@ -55862,7 +55973,7 @@
     </row>
     <row r="467" hidden="true">
       <c r="A467" t="s" s="2">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="B467" t="s" s="2">
         <v>318</v>
@@ -55976,7 +56087,7 @@
     </row>
     <row r="468" hidden="true">
       <c r="A468" t="s" s="2">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="B468" t="s" s="2">
         <v>322</v>
@@ -56088,7 +56199,7 @@
     </row>
     <row r="469" hidden="true">
       <c r="A469" t="s" s="2">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="B469" t="s" s="2">
         <v>325</v>
@@ -56200,7 +56311,7 @@
     </row>
     <row r="470" hidden="true">
       <c r="A470" t="s" s="2">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="B470" t="s" s="2">
         <v>327</v>
@@ -56312,7 +56423,7 @@
     </row>
     <row r="471" hidden="true">
       <c r="A471" t="s" s="2">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="B471" t="s" s="2">
         <v>330</v>
@@ -56424,7 +56535,7 @@
     </row>
     <row r="472" hidden="true">
       <c r="A472" t="s" s="2">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="B472" t="s" s="2">
         <v>333</v>
@@ -56536,7 +56647,7 @@
     </row>
     <row r="473" hidden="true">
       <c r="A473" t="s" s="2">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="B473" t="s" s="2">
         <v>337</v>
@@ -56648,7 +56759,7 @@
     </row>
     <row r="474" hidden="true">
       <c r="A474" t="s" s="2">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="B474" t="s" s="2">
         <v>338</v>
@@ -56762,7 +56873,7 @@
     </row>
     <row r="475" hidden="true">
       <c r="A475" t="s" s="2">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="B475" t="s" s="2">
         <v>339</v>
@@ -56878,7 +56989,7 @@
     </row>
     <row r="476" hidden="true">
       <c r="A476" t="s" s="2">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="B476" t="s" s="2">
         <v>340</v>
@@ -56990,7 +57101,7 @@
     </row>
     <row r="477" hidden="true">
       <c r="A477" t="s" s="2">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="B477" t="s" s="2">
         <v>343</v>
@@ -57102,7 +57213,7 @@
     </row>
     <row r="478" hidden="true">
       <c r="A478" t="s" s="2">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="B478" t="s" s="2">
         <v>346</v>
@@ -57216,7 +57327,7 @@
     </row>
     <row r="479" hidden="true">
       <c r="A479" t="s" s="2">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="B479" t="s" s="2">
         <v>350</v>
@@ -57330,7 +57441,7 @@
     </row>
     <row r="480" hidden="true">
       <c r="A480" t="s" s="2">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="B480" t="s" s="2">
         <v>354</v>
@@ -57444,12 +57555,14 @@
     </row>
     <row r="481" hidden="true">
       <c r="A481" t="s" s="2">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="B481" t="s" s="2">
-        <v>861</v>
-      </c>
-      <c r="C481" s="2"/>
+        <v>267</v>
+      </c>
+      <c r="C481" t="s" s="2">
+        <v>859</v>
+      </c>
       <c r="D481" t="s" s="2">
         <v>75</v>
       </c>
@@ -57461,7 +57574,7 @@
         <v>85</v>
       </c>
       <c r="H481" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="I481" t="s" s="2">
         <v>75</v>
@@ -57470,20 +57583,16 @@
         <v>86</v>
       </c>
       <c r="K481" t="s" s="2">
-        <v>862</v>
+        <v>249</v>
       </c>
       <c r="L481" t="s" s="2">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="M481" t="s" s="2">
-        <v>864</v>
-      </c>
-      <c r="N481" t="s" s="2">
-        <v>865</v>
-      </c>
-      <c r="O481" t="s" s="2">
-        <v>866</v>
-      </c>
+        <v>861</v>
+      </c>
+      <c r="N481" s="2"/>
+      <c r="O481" s="2"/>
       <c r="P481" t="s" s="2">
         <v>75</v>
       </c>
@@ -57531,35 +57640,3661 @@
         <v>75</v>
       </c>
       <c r="AF481" t="s" s="2">
-        <v>861</v>
+        <v>267</v>
       </c>
       <c r="AG481" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH481" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI481" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ481" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AK481" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL481" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM481" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN481" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="482" hidden="true">
+      <c r="A482" t="s" s="2">
+        <v>862</v>
+      </c>
+      <c r="B482" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="C482" s="2"/>
+      <c r="D482" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E482" s="2"/>
+      <c r="F482" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G482" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H482" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I482" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J482" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K482" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="L482" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="M482" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="N482" s="2"/>
+      <c r="O482" s="2"/>
+      <c r="P482" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q482" s="2"/>
+      <c r="R482" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S482" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T482" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U482" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V482" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W482" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X482" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y482" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z482" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA482" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB482" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC482" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD482" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE482" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF482" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AG482" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH482" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI482" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ482" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK482" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL482" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AM482" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN482" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="483" hidden="true">
+      <c r="A483" t="s" s="2">
+        <v>863</v>
+      </c>
+      <c r="B483" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="C483" s="2"/>
+      <c r="D483" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="E483" s="2"/>
+      <c r="F483" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G483" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H483" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I483" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J483" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K483" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L483" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="M483" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="N483" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="O483" s="2"/>
+      <c r="P483" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q483" s="2"/>
+      <c r="R483" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S483" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T483" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U483" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V483" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W483" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X483" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y483" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z483" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA483" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB483" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC483" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD483" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE483" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF483" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AG483" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH483" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI483" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ483" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AK483" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL483" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AM483" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN483" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="484" hidden="true">
+      <c r="A484" t="s" s="2">
+        <v>864</v>
+      </c>
+      <c r="B484" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="C484" s="2"/>
+      <c r="D484" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="E484" s="2"/>
+      <c r="F484" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G484" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H484" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I484" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J484" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K484" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L484" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="M484" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="N484" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="O484" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="P484" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q484" s="2"/>
+      <c r="R484" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S484" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T484" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U484" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V484" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W484" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X484" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y484" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z484" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA484" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB484" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC484" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD484" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE484" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF484" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AG484" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH484" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI484" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ484" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AK484" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL484" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM484" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN484" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="485" hidden="true">
+      <c r="A485" t="s" s="2">
+        <v>865</v>
+      </c>
+      <c r="B485" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="C485" s="2"/>
+      <c r="D485" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E485" s="2"/>
+      <c r="F485" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G485" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H485" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I485" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J485" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K485" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L485" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="M485" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="N485" s="2"/>
+      <c r="O485" s="2"/>
+      <c r="P485" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q485" s="2"/>
+      <c r="R485" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S485" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T485" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U485" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V485" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W485" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X485" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y485" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z485" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA485" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB485" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC485" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD485" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE485" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF485" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AG485" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH485" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI485" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ485" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AK481" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL481" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM481" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AN481" t="s" s="2">
+      <c r="AK485" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL485" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM485" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN485" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="486" hidden="true">
+      <c r="A486" t="s" s="2">
+        <v>866</v>
+      </c>
+      <c r="B486" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="C486" s="2"/>
+      <c r="D486" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E486" s="2"/>
+      <c r="F486" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G486" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H486" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I486" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J486" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K486" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="L486" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="M486" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="N486" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="O486" s="2"/>
+      <c r="P486" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q486" s="2"/>
+      <c r="R486" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S486" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T486" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U486" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V486" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W486" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X486" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y486" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z486" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA486" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB486" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC486" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD486" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE486" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF486" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AG486" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH486" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI486" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ486" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK486" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL486" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM486" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN486" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="487" hidden="true">
+      <c r="A487" t="s" s="2">
+        <v>867</v>
+      </c>
+      <c r="B487" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="C487" s="2"/>
+      <c r="D487" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E487" s="2"/>
+      <c r="F487" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G487" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H487" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I487" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J487" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K487" t="s" s="2">
+        <v>868</v>
+      </c>
+      <c r="L487" t="s" s="2">
+        <v>869</v>
+      </c>
+      <c r="M487" t="s" s="2">
+        <v>870</v>
+      </c>
+      <c r="N487" s="2"/>
+      <c r="O487" s="2"/>
+      <c r="P487" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q487" s="2"/>
+      <c r="R487" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S487" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T487" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U487" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V487" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W487" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X487" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y487" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z487" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA487" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB487" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC487" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD487" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE487" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF487" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AG487" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH487" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI487" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ487" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AK487" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL487" t="s" s="2">
+        <v>871</v>
+      </c>
+      <c r="AM487" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN487" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="488" hidden="true">
+      <c r="A488" t="s" s="2">
+        <v>872</v>
+      </c>
+      <c r="B488" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="C488" s="2"/>
+      <c r="D488" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E488" s="2"/>
+      <c r="F488" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G488" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H488" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I488" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J488" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K488" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="L488" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="M488" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="N488" s="2"/>
+      <c r="O488" s="2"/>
+      <c r="P488" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q488" s="2"/>
+      <c r="R488" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S488" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T488" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U488" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V488" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W488" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X488" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y488" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z488" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA488" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB488" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC488" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD488" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE488" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF488" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="AG488" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH488" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI488" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AJ488" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK488" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL488" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM488" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN488" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="489" hidden="true">
+      <c r="A489" t="s" s="2">
+        <v>873</v>
+      </c>
+      <c r="B489" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="C489" s="2"/>
+      <c r="D489" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E489" s="2"/>
+      <c r="F489" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G489" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H489" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I489" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J489" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K489" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="L489" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="M489" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="N489" s="2"/>
+      <c r="O489" s="2"/>
+      <c r="P489" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q489" s="2"/>
+      <c r="R489" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S489" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T489" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U489" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V489" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W489" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X489" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y489" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z489" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA489" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB489" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC489" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD489" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE489" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF489" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AG489" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH489" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI489" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ489" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK489" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL489" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AM489" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN489" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="490" hidden="true">
+      <c r="A490" t="s" s="2">
+        <v>874</v>
+      </c>
+      <c r="B490" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="C490" s="2"/>
+      <c r="D490" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="E490" s="2"/>
+      <c r="F490" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G490" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H490" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I490" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J490" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K490" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L490" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="M490" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="N490" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="O490" s="2"/>
+      <c r="P490" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q490" s="2"/>
+      <c r="R490" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S490" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T490" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U490" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V490" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W490" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X490" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y490" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z490" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA490" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB490" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC490" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD490" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE490" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF490" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AG490" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH490" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI490" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ490" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AK490" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL490" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AM490" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN490" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="491" hidden="true">
+      <c r="A491" t="s" s="2">
+        <v>875</v>
+      </c>
+      <c r="B491" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="C491" s="2"/>
+      <c r="D491" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="E491" s="2"/>
+      <c r="F491" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G491" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H491" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I491" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J491" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K491" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L491" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="M491" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="N491" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="O491" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="P491" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q491" s="2"/>
+      <c r="R491" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S491" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T491" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U491" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V491" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W491" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X491" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y491" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z491" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA491" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB491" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC491" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD491" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE491" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF491" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AG491" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH491" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI491" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ491" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AK491" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL491" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM491" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN491" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="492" hidden="true">
+      <c r="A492" t="s" s="2">
+        <v>876</v>
+      </c>
+      <c r="B492" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="C492" s="2"/>
+      <c r="D492" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E492" s="2"/>
+      <c r="F492" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G492" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H492" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I492" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J492" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K492" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="L492" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="M492" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="N492" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="O492" s="2"/>
+      <c r="P492" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q492" s="2"/>
+      <c r="R492" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S492" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T492" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U492" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V492" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W492" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X492" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="Y492" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="Z492" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="AA492" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB492" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC492" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD492" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE492" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF492" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="AG492" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH492" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI492" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ492" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK492" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL492" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM492" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN492" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="493" hidden="true">
+      <c r="A493" t="s" s="2">
+        <v>877</v>
+      </c>
+      <c r="B493" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="C493" s="2"/>
+      <c r="D493" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E493" s="2"/>
+      <c r="F493" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G493" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H493" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I493" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J493" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K493" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="L493" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="M493" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="N493" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="O493" s="2"/>
+      <c r="P493" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q493" s="2"/>
+      <c r="R493" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S493" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T493" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U493" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V493" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W493" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X493" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y493" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z493" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA493" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB493" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC493" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD493" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE493" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF493" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AG493" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH493" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI493" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ493" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK493" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL493" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM493" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN493" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="494" hidden="true">
+      <c r="A494" t="s" s="2">
+        <v>878</v>
+      </c>
+      <c r="B494" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="C494" s="2"/>
+      <c r="D494" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E494" s="2"/>
+      <c r="F494" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G494" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H494" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I494" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J494" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K494" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="L494" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="M494" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="N494" s="2"/>
+      <c r="O494" s="2"/>
+      <c r="P494" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q494" s="2"/>
+      <c r="R494" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S494" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T494" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U494" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V494" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W494" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X494" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y494" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z494" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA494" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB494" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC494" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD494" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE494" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF494" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AG494" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH494" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI494" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="AJ494" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK494" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL494" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM494" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN494" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="495" hidden="true">
+      <c r="A495" t="s" s="2">
+        <v>879</v>
+      </c>
+      <c r="B495" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="C495" s="2"/>
+      <c r="D495" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E495" s="2"/>
+      <c r="F495" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G495" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H495" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I495" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J495" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K495" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="L495" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="M495" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="N495" s="2"/>
+      <c r="O495" s="2"/>
+      <c r="P495" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q495" s="2"/>
+      <c r="R495" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S495" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T495" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U495" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V495" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W495" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X495" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y495" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z495" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA495" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB495" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC495" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD495" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE495" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF495" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AG495" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH495" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI495" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ495" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK495" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL495" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AM495" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN495" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="496" hidden="true">
+      <c r="A496" t="s" s="2">
+        <v>880</v>
+      </c>
+      <c r="B496" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="C496" s="2"/>
+      <c r="D496" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="E496" s="2"/>
+      <c r="F496" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G496" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H496" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I496" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J496" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K496" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L496" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="M496" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="N496" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="O496" s="2"/>
+      <c r="P496" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q496" s="2"/>
+      <c r="R496" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S496" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T496" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U496" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V496" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W496" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X496" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y496" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z496" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA496" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB496" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC496" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD496" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE496" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF496" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AG496" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH496" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI496" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ496" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AK496" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL496" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AM496" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN496" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="497" hidden="true">
+      <c r="A497" t="s" s="2">
+        <v>881</v>
+      </c>
+      <c r="B497" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="C497" s="2"/>
+      <c r="D497" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="E497" s="2"/>
+      <c r="F497" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G497" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H497" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I497" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J497" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K497" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L497" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="M497" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="N497" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="O497" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="P497" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q497" s="2"/>
+      <c r="R497" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S497" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T497" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U497" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V497" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W497" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X497" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y497" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z497" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA497" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB497" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC497" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD497" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE497" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF497" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AG497" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH497" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI497" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ497" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AK497" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL497" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM497" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN497" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="498" hidden="true">
+      <c r="A498" t="s" s="2">
+        <v>882</v>
+      </c>
+      <c r="B498" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="C498" s="2"/>
+      <c r="D498" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E498" s="2"/>
+      <c r="F498" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G498" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H498" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I498" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J498" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K498" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="L498" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="M498" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="N498" s="2"/>
+      <c r="O498" s="2"/>
+      <c r="P498" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q498" s="2"/>
+      <c r="R498" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S498" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T498" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U498" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V498" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W498" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X498" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="Y498" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="Z498" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AA498" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB498" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC498" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD498" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE498" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF498" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AG498" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH498" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI498" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ498" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK498" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL498" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM498" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN498" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="499" hidden="true">
+      <c r="A499" t="s" s="2">
+        <v>883</v>
+      </c>
+      <c r="B499" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="C499" s="2"/>
+      <c r="D499" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E499" s="2"/>
+      <c r="F499" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G499" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H499" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I499" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J499" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K499" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="L499" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="M499" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="N499" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="O499" s="2"/>
+      <c r="P499" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q499" s="2"/>
+      <c r="R499" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S499" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T499" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U499" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V499" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W499" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X499" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y499" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z499" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA499" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB499" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC499" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD499" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE499" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF499" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AG499" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH499" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI499" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ499" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK499" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL499" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM499" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN499" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="500" hidden="true">
+      <c r="A500" t="s" s="2">
+        <v>884</v>
+      </c>
+      <c r="B500" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="C500" s="2"/>
+      <c r="D500" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E500" s="2"/>
+      <c r="F500" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G500" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H500" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I500" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J500" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K500" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="L500" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="M500" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="N500" s="2"/>
+      <c r="O500" s="2"/>
+      <c r="P500" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q500" s="2"/>
+      <c r="R500" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S500" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T500" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U500" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V500" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W500" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X500" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y500" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z500" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA500" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB500" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC500" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD500" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE500" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF500" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AG500" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH500" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI500" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ500" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK500" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL500" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM500" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN500" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="501" hidden="true">
+      <c r="A501" t="s" s="2">
+        <v>885</v>
+      </c>
+      <c r="B501" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="C501" s="2"/>
+      <c r="D501" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E501" s="2"/>
+      <c r="F501" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G501" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H501" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I501" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J501" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K501" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="L501" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="M501" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="N501" s="2"/>
+      <c r="O501" s="2"/>
+      <c r="P501" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q501" s="2"/>
+      <c r="R501" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S501" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T501" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U501" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V501" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W501" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X501" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y501" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z501" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA501" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB501" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC501" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD501" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE501" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF501" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AG501" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH501" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI501" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ501" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK501" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL501" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM501" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN501" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="502" hidden="true">
+      <c r="A502" t="s" s="2">
+        <v>886</v>
+      </c>
+      <c r="B502" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="C502" s="2"/>
+      <c r="D502" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E502" s="2"/>
+      <c r="F502" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G502" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H502" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I502" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J502" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K502" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="L502" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="M502" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="N502" s="2"/>
+      <c r="O502" s="2"/>
+      <c r="P502" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q502" s="2"/>
+      <c r="R502" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S502" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T502" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U502" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V502" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W502" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X502" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y502" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z502" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA502" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB502" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC502" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD502" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE502" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF502" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AG502" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH502" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI502" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ502" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK502" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL502" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM502" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN502" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="503" hidden="true">
+      <c r="A503" t="s" s="2">
+        <v>887</v>
+      </c>
+      <c r="B503" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="C503" s="2"/>
+      <c r="D503" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E503" s="2"/>
+      <c r="F503" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G503" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H503" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I503" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J503" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K503" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="L503" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="M503" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="N503" s="2"/>
+      <c r="O503" s="2"/>
+      <c r="P503" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q503" s="2"/>
+      <c r="R503" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S503" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T503" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U503" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V503" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W503" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X503" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y503" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z503" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA503" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB503" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC503" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD503" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE503" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF503" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="AG503" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH503" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI503" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ503" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK503" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL503" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM503" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN503" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="504" hidden="true">
+      <c r="A504" t="s" s="2">
+        <v>888</v>
+      </c>
+      <c r="B504" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="C504" s="2"/>
+      <c r="D504" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E504" s="2"/>
+      <c r="F504" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G504" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H504" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I504" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J504" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K504" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="L504" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="M504" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="N504" s="2"/>
+      <c r="O504" s="2"/>
+      <c r="P504" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q504" s="2"/>
+      <c r="R504" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S504" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T504" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U504" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V504" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W504" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X504" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y504" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z504" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA504" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB504" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC504" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD504" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE504" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF504" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="AG504" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH504" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI504" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AJ504" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK504" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL504" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM504" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN504" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="505" hidden="true">
+      <c r="A505" t="s" s="2">
+        <v>889</v>
+      </c>
+      <c r="B505" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="C505" s="2"/>
+      <c r="D505" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E505" s="2"/>
+      <c r="F505" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G505" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H505" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I505" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J505" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K505" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="L505" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="M505" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="N505" s="2"/>
+      <c r="O505" s="2"/>
+      <c r="P505" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q505" s="2"/>
+      <c r="R505" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S505" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T505" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U505" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V505" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W505" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X505" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y505" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z505" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA505" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB505" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC505" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD505" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE505" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF505" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AG505" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH505" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI505" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ505" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK505" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL505" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AM505" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN505" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="506" hidden="true">
+      <c r="A506" t="s" s="2">
+        <v>890</v>
+      </c>
+      <c r="B506" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="C506" s="2"/>
+      <c r="D506" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="E506" s="2"/>
+      <c r="F506" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G506" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H506" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I506" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J506" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K506" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L506" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="M506" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="N506" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="O506" s="2"/>
+      <c r="P506" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q506" s="2"/>
+      <c r="R506" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S506" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T506" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U506" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V506" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W506" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X506" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y506" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z506" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA506" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB506" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC506" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD506" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE506" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF506" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AG506" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH506" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI506" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ506" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AK506" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL506" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AM506" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN506" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="507" hidden="true">
+      <c r="A507" t="s" s="2">
+        <v>891</v>
+      </c>
+      <c r="B507" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="C507" s="2"/>
+      <c r="D507" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="E507" s="2"/>
+      <c r="F507" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G507" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H507" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I507" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J507" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K507" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L507" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="M507" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="N507" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="O507" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="P507" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q507" s="2"/>
+      <c r="R507" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S507" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T507" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U507" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V507" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W507" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X507" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y507" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z507" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA507" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB507" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC507" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD507" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE507" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF507" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AG507" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH507" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI507" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ507" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AK507" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL507" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM507" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN507" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="508" hidden="true">
+      <c r="A508" t="s" s="2">
+        <v>892</v>
+      </c>
+      <c r="B508" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="C508" s="2"/>
+      <c r="D508" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E508" s="2"/>
+      <c r="F508" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G508" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H508" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I508" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J508" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K508" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="L508" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="M508" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="N508" s="2"/>
+      <c r="O508" s="2"/>
+      <c r="P508" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q508" s="2"/>
+      <c r="R508" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S508" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T508" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U508" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V508" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W508" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X508" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y508" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z508" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA508" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB508" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC508" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD508" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE508" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF508" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AG508" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH508" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI508" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ508" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK508" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL508" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM508" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN508" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="509" hidden="true">
+      <c r="A509" t="s" s="2">
+        <v>893</v>
+      </c>
+      <c r="B509" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="C509" s="2"/>
+      <c r="D509" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E509" s="2"/>
+      <c r="F509" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G509" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H509" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I509" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J509" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K509" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="L509" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="M509" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="N509" s="2"/>
+      <c r="O509" s="2"/>
+      <c r="P509" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q509" s="2"/>
+      <c r="R509" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S509" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T509" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U509" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V509" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W509" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X509" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y509" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z509" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA509" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB509" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC509" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD509" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE509" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF509" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="AG509" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH509" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI509" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ509" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK509" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL509" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM509" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN509" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="510" hidden="true">
+      <c r="A510" t="s" s="2">
+        <v>894</v>
+      </c>
+      <c r="B510" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="C510" s="2"/>
+      <c r="D510" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E510" s="2"/>
+      <c r="F510" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G510" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H510" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I510" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J510" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K510" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="L510" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="M510" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="N510" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="O510" s="2"/>
+      <c r="P510" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q510" s="2"/>
+      <c r="R510" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S510" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T510" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U510" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V510" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W510" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X510" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y510" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z510" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA510" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB510" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC510" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD510" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE510" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF510" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AG510" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH510" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI510" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ510" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK510" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL510" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM510" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN510" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="511" hidden="true">
+      <c r="A511" t="s" s="2">
+        <v>895</v>
+      </c>
+      <c r="B511" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="C511" s="2"/>
+      <c r="D511" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E511" s="2"/>
+      <c r="F511" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G511" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H511" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I511" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J511" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K511" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="L511" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="M511" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="N511" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="O511" s="2"/>
+      <c r="P511" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q511" s="2"/>
+      <c r="R511" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S511" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T511" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U511" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V511" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W511" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X511" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y511" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z511" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA511" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB511" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC511" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD511" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE511" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF511" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AG511" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH511" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI511" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ511" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK511" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL511" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM511" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN511" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="512" hidden="true">
+      <c r="A512" t="s" s="2">
+        <v>896</v>
+      </c>
+      <c r="B512" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="C512" s="2"/>
+      <c r="D512" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E512" s="2"/>
+      <c r="F512" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G512" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H512" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I512" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J512" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K512" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="L512" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="M512" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="N512" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="O512" s="2"/>
+      <c r="P512" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q512" s="2"/>
+      <c r="R512" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S512" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T512" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U512" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V512" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W512" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X512" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y512" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z512" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA512" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB512" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC512" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD512" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE512" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF512" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AG512" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH512" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI512" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ512" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK512" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL512" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM512" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN512" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="513" hidden="true">
+      <c r="A513" t="s" s="2">
+        <v>897</v>
+      </c>
+      <c r="B513" t="s" s="2">
+        <v>897</v>
+      </c>
+      <c r="C513" s="2"/>
+      <c r="D513" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E513" s="2"/>
+      <c r="F513" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G513" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H513" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I513" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J513" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K513" t="s" s="2">
+        <v>898</v>
+      </c>
+      <c r="L513" t="s" s="2">
+        <v>899</v>
+      </c>
+      <c r="M513" t="s" s="2">
+        <v>900</v>
+      </c>
+      <c r="N513" t="s" s="2">
+        <v>901</v>
+      </c>
+      <c r="O513" t="s" s="2">
+        <v>902</v>
+      </c>
+      <c r="P513" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q513" s="2"/>
+      <c r="R513" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S513" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T513" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U513" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V513" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W513" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X513" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y513" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z513" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA513" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB513" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC513" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD513" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE513" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF513" t="s" s="2">
+        <v>897</v>
+      </c>
+      <c r="AG513" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH513" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI513" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ513" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK513" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL513" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM513" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN513" t="s" s="2">
         <v>75</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN481">
+  <autoFilter ref="A1:AN513">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -57569,7 +61304,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI480">
+  <conditionalFormatting sqref="A2:AI512">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-ms-bundle.xlsx
+++ b/StructureDefinition-ms-bundle.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18332" uniqueCount="903">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18332" uniqueCount="897">
   <si>
     <t>Property</t>
   </si>
@@ -51,7 +51,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-18T10:20:43-05:00</t>
+    <t>2024-05-01T13:56:53-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>NMDP (http://bethematch.org)</t>
   </si>
   <si>
     <t>Description</t>
@@ -1181,10 +1181,6 @@
     <t>The US Core Patient Profile is based upon the core FHIR Patient Resource and designed to meet the applicable patient demographic data elements from the 2015 Edition Common Clinical Data Set.</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
-  </si>
-  <si>
     <t>Patient[classCode=PAT]</t>
   </si>
   <si>
@@ -1264,6 +1260,131 @@
   </si>
   <si>
     <t>Bundle.entry:msPatient.response.outcome</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msCmv</t>
+  </si>
+  <si>
+    <t>msCmv</t>
+  </si>
+  <si>
+    <t>MatchSync Patient CMV Status</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msCmv.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msCmv.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msCmv.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msCmv.link</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msCmv.fullUrl</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msCmv.resource</t>
+  </si>
+  <si>
+    <t>Vital Signs
+MeasurementResultsTests</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Observation {http://fhir.nmdp.org/ig/matchsync/StructureDefinition/ms-cmvgroup-observation}
+</t>
+  </si>
+  <si>
+    <t>Measurements and simple assertions</t>
+  </si>
+  <si>
+    <t>Measurements and simple assertions made about a patient, device or other subject.</t>
+  </si>
+  <si>
+    <t>Used for simple observations such as device measurements, laboratory atomic results, vital signs, height, weight, smoking status, comments, etc.  Other resources are used to provide context for observations such as laboratory reports, etc.</t>
+  </si>
+  <si>
+    <t>OBX</t>
+  </si>
+  <si>
+    <t>Observation[classCode=OBS, moodCode=EVN]</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msCmv.search</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msCmv.search.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msCmv.search.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msCmv.search.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msCmv.search.mode</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msCmv.search.score</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msCmv.request</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msCmv.request.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msCmv.request.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msCmv.request.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msCmv.request.method</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msCmv.request.url</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msCmv.request.ifNoneMatch</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msCmv.request.ifModifiedSince</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msCmv.request.ifMatch</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msCmv.request.ifNoneExist</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msCmv.response</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msCmv.response.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msCmv.response.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msCmv.response.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msCmv.response.status</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msCmv.response.location</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msCmv.response.etag</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msCmv.response.lastModified</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msCmv.response.outcome</t>
   </si>
   <si>
     <t>Bundle.entry:msDiagnosis</t>
@@ -1306,10 +1427,6 @@
     <t>A clinical condition, problem, diagnosis, or other event, situation, issue, or clinical concept that has risen to a level of concern.</t>
   </si>
   <si>
-    <t>con-3:Condition.clinicalStatus SHALL be present if verificationStatus is not entered-in-error and category is problem-list-item {clinicalStatus.exists() or verificationStatus.coding.where(system='http://terminology.hl7.org/CodeSystem/condition-ver-status' and code = 'entered-in-error').exists() or category.select($this='problem-list-item').empty()}
-con-4:If condition is abated, then clinicalStatus must be either inactive, resolved, or remission {abatement.empty() or clinicalStatus.coding.where(system='http://terminology.hl7.org/CodeSystem/condition-clinical' and (code='resolved' or code='remission' or code='inactive')).exists()}con-5:Condition.clinicalStatus SHALL NOT be present if verification Status is entered-in-error {verificationStatus.coding.where(system='http://terminology.hl7.org/CodeSystem/condition-ver-status' and code='entered-in-error').empty() or clinicalStatus.empty()}dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
-  </si>
-  <si>
     <t>PPR message</t>
   </si>
   <si>
@@ -1389,138 +1506,6 @@
   </si>
   <si>
     <t>Bundle.entry:msDiagnosis.response.outcome</t>
-  </si>
-  <si>
-    <t>Bundle.entry:msGenderIdentity</t>
-  </si>
-  <si>
-    <t>msGenderIdentity</t>
-  </si>
-  <si>
-    <t>MatchSync Patient Self Identified Gender</t>
-  </si>
-  <si>
-    <t>The MatchSync Patient whose data is included in the bundle (optional).</t>
-  </si>
-  <si>
-    <t>Bundle.entry:msGenderIdentity.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:msGenderIdentity.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:msGenderIdentity.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:msGenderIdentity.link</t>
-  </si>
-  <si>
-    <t>Bundle.entry:msGenderIdentity.fullUrl</t>
-  </si>
-  <si>
-    <t>Bundle.entry:msGenderIdentity.resource</t>
-  </si>
-  <si>
-    <t>Vital Signs
-MeasurementResultsTests</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Observation {http://fhir.nmdp.org/ig/matchsync/StructureDefinition/ms-patient-gender-identity-observation}
-</t>
-  </si>
-  <si>
-    <t>Measurements and simple assertions</t>
-  </si>
-  <si>
-    <t>Measurements and simple assertions made about a patient, device or other subject.</t>
-  </si>
-  <si>
-    <t>Used for simple observations such as device measurements, laboratory atomic results, vital signs, height, weight, smoking status, comments, etc.  Other resources are used to provide context for observations such as laboratory reports, etc.</t>
-  </si>
-  <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}</t>
-  </si>
-  <si>
-    <t>OBX</t>
-  </si>
-  <si>
-    <t>Observation[classCode=OBS, moodCode=EVN]</t>
-  </si>
-  <si>
-    <t>Bundle.entry:msGenderIdentity.search</t>
-  </si>
-  <si>
-    <t>Bundle.entry:msGenderIdentity.search.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:msGenderIdentity.search.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:msGenderIdentity.search.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:msGenderIdentity.search.mode</t>
-  </si>
-  <si>
-    <t>Bundle.entry:msGenderIdentity.search.score</t>
-  </si>
-  <si>
-    <t>Bundle.entry:msGenderIdentity.request</t>
-  </si>
-  <si>
-    <t>Bundle.entry:msGenderIdentity.request.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:msGenderIdentity.request.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:msGenderIdentity.request.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:msGenderIdentity.request.method</t>
-  </si>
-  <si>
-    <t>Bundle.entry:msGenderIdentity.request.url</t>
-  </si>
-  <si>
-    <t>Bundle.entry:msGenderIdentity.request.ifNoneMatch</t>
-  </si>
-  <si>
-    <t>Bundle.entry:msGenderIdentity.request.ifModifiedSince</t>
-  </si>
-  <si>
-    <t>Bundle.entry:msGenderIdentity.request.ifMatch</t>
-  </si>
-  <si>
-    <t>Bundle.entry:msGenderIdentity.request.ifNoneExist</t>
-  </si>
-  <si>
-    <t>Bundle.entry:msGenderIdentity.response</t>
-  </si>
-  <si>
-    <t>Bundle.entry:msGenderIdentity.response.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:msGenderIdentity.response.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:msGenderIdentity.response.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:msGenderIdentity.response.status</t>
-  </si>
-  <si>
-    <t>Bundle.entry:msGenderIdentity.response.location</t>
-  </si>
-  <si>
-    <t>Bundle.entry:msGenderIdentity.response.etag</t>
-  </si>
-  <si>
-    <t>Bundle.entry:msGenderIdentity.response.lastModified</t>
-  </si>
-  <si>
-    <t>Bundle.entry:msGenderIdentity.response.outcome</t>
   </si>
   <si>
     <t>Bundle.entry:msPractitionerRole</t>
@@ -1796,10 +1781,6 @@
     <t>A formally or informally recognized grouping of people or organizations formed for the purpose of achieving some form of collective action.  Includes companies, institutions, corporations, departments, community groups, healthcare practice groups, payer/insurer, etc.</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}org-1:The organization SHALL at least have a name or an identifier, and possibly more than one {(identifier.count() + name.count()) &gt; 0}</t>
-  </si>
-  <si>
     <t>(also see master files messages)</t>
   </si>
   <si>
@@ -2461,10 +2442,6 @@
   </si>
   <si>
     <t>This profile defines  how to represent Body Height observations in FHIR using a standard LOINC code and UCUM units of measure.</t>
-  </si>
-  <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}vs-2:If there is no component or hasMember element then either a value[x] or a data absent reason must be present. {(component.empty() and hasMember.empty()) implies (dataAbsentReason.exists() or value.exists())}</t>
   </si>
   <si>
     <t>Bundle.entry:msObsHeight.search</t>
@@ -3122,7 +3099,7 @@
     <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="100.42578125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="96.4140625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -11204,16 +11181,16 @@
         <v>75</v>
       </c>
       <c r="AJ71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL71" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="AK71" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL71" t="s" s="2">
+      <c r="AM71" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>374</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>75</v>
@@ -11221,7 +11198,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B72" t="s" s="2">
         <v>288</v>
@@ -11333,7 +11310,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>292</v>
@@ -11445,7 +11422,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B74" t="s" s="2">
         <v>293</v>
@@ -11559,7 +11536,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>294</v>
@@ -11675,7 +11652,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>295</v>
@@ -11789,7 +11766,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B77" t="s" s="2">
         <v>301</v>
@@ -11903,7 +11880,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>306</v>
@@ -12015,7 +11992,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>310</v>
@@ -12127,7 +12104,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>311</v>
@@ -12241,7 +12218,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>312</v>
@@ -12357,7 +12334,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B82" t="s" s="2">
         <v>313</v>
@@ -12469,7 +12446,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>318</v>
@@ -12583,7 +12560,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B84" t="s" s="2">
         <v>322</v>
@@ -12695,7 +12672,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B85" t="s" s="2">
         <v>325</v>
@@ -12807,7 +12784,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B86" t="s" s="2">
         <v>327</v>
@@ -12919,7 +12896,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B87" t="s" s="2">
         <v>330</v>
@@ -13031,7 +13008,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>333</v>
@@ -13143,7 +13120,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B89" t="s" s="2">
         <v>337</v>
@@ -13255,7 +13232,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B90" t="s" s="2">
         <v>338</v>
@@ -13369,7 +13346,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B91" t="s" s="2">
         <v>339</v>
@@ -13485,7 +13462,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B92" t="s" s="2">
         <v>340</v>
@@ -13597,7 +13574,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>343</v>
@@ -13709,7 +13686,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B94" t="s" s="2">
         <v>346</v>
@@ -13823,7 +13800,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B95" t="s" s="2">
         <v>350</v>
@@ -13937,7 +13914,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B96" t="s" s="2">
         <v>354</v>
@@ -14051,23 +14028,23 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B97" t="s" s="2">
         <v>267</v>
       </c>
       <c r="C97" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D97" t="s" s="2">
         <v>75</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>86</v>
@@ -14082,10 +14059,10 @@
         <v>249</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>403</v>
+        <v>361</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -14165,7 +14142,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>274</v>
@@ -14277,7 +14254,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B99" t="s" s="2">
         <v>275</v>
@@ -14391,7 +14368,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B100" t="s" s="2">
         <v>276</v>
@@ -14507,7 +14484,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B101" t="s" s="2">
         <v>277</v>
@@ -14619,7 +14596,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B102" t="s" s="2">
         <v>280</v>
@@ -14733,14 +14710,14 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>284</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
-        <v>75</v>
+        <v>408</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" t="s" s="2">
@@ -14759,15 +14736,17 @@
         <v>75</v>
       </c>
       <c r="K103" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="L103" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="L103" t="s" s="2">
+      <c r="M103" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="M103" t="s" s="2">
+      <c r="N103" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="N103" s="2"/>
       <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
         <v>75</v>
@@ -14828,13 +14807,13 @@
         <v>75</v>
       </c>
       <c r="AJ103" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK103" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="AK103" t="s" s="2">
+      <c r="AL103" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="AL103" t="s" s="2">
-        <v>415</v>
       </c>
       <c r="AM103" t="s" s="2">
         <v>75</v>
@@ -14845,7 +14824,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B104" t="s" s="2">
         <v>288</v>
@@ -14957,7 +14936,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B105" t="s" s="2">
         <v>292</v>
@@ -15069,7 +15048,7 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B106" t="s" s="2">
         <v>293</v>
@@ -15183,7 +15162,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B107" t="s" s="2">
         <v>294</v>
@@ -15299,7 +15278,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B108" t="s" s="2">
         <v>295</v>
@@ -15413,7 +15392,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B109" t="s" s="2">
         <v>301</v>
@@ -15527,7 +15506,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B110" t="s" s="2">
         <v>306</v>
@@ -15639,7 +15618,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B111" t="s" s="2">
         <v>310</v>
@@ -15751,7 +15730,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B112" t="s" s="2">
         <v>311</v>
@@ -15865,7 +15844,7 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B113" t="s" s="2">
         <v>312</v>
@@ -15981,7 +15960,7 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B114" t="s" s="2">
         <v>313</v>
@@ -16093,7 +16072,7 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B115" t="s" s="2">
         <v>318</v>
@@ -16207,7 +16186,7 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B116" t="s" s="2">
         <v>322</v>
@@ -16319,7 +16298,7 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B117" t="s" s="2">
         <v>325</v>
@@ -16431,7 +16410,7 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B118" t="s" s="2">
         <v>327</v>
@@ -16543,7 +16522,7 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B119" t="s" s="2">
         <v>330</v>
@@ -16655,7 +16634,7 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B120" t="s" s="2">
         <v>333</v>
@@ -16767,7 +16746,7 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B121" t="s" s="2">
         <v>337</v>
@@ -16879,7 +16858,7 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B122" t="s" s="2">
         <v>338</v>
@@ -16993,7 +16972,7 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B123" t="s" s="2">
         <v>339</v>
@@ -17109,7 +17088,7 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B124" t="s" s="2">
         <v>340</v>
@@ -17221,7 +17200,7 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B125" t="s" s="2">
         <v>343</v>
@@ -17333,7 +17312,7 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B126" t="s" s="2">
         <v>346</v>
@@ -17447,7 +17426,7 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B127" t="s" s="2">
         <v>350</v>
@@ -17561,7 +17540,7 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B128" t="s" s="2">
         <v>354</v>
@@ -17675,23 +17654,23 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B129" t="s" s="2">
         <v>267</v>
       </c>
       <c r="C129" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D129" t="s" s="2">
         <v>75</v>
       </c>
       <c r="E129" s="2"/>
       <c r="F129" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G129" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H129" t="s" s="2">
         <v>86</v>
@@ -17706,10 +17685,10 @@
         <v>249</v>
       </c>
       <c r="L129" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="M129" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="M129" t="s" s="2">
-        <v>444</v>
       </c>
       <c r="N129" s="2"/>
       <c r="O129" s="2"/>
@@ -17789,7 +17768,7 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B130" t="s" s="2">
         <v>274</v>
@@ -17901,7 +17880,7 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B131" t="s" s="2">
         <v>275</v>
@@ -18015,7 +17994,7 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B132" t="s" s="2">
         <v>276</v>
@@ -18131,7 +18110,7 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B133" t="s" s="2">
         <v>277</v>
@@ -18157,7 +18136,7 @@
         <v>86</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="L133" t="s" s="2">
         <v>278</v>
@@ -18243,7 +18222,7 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B134" t="s" s="2">
         <v>280</v>
@@ -18357,14 +18336,14 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B135" t="s" s="2">
         <v>284</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
-        <v>451</v>
+        <v>75</v>
       </c>
       <c r="E135" s="2"/>
       <c r="F135" t="s" s="2">
@@ -18383,17 +18362,15 @@
         <v>75</v>
       </c>
       <c r="K135" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="L135" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="M135" t="s" s="2">
         <v>452</v>
       </c>
-      <c r="L135" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="M135" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="N135" t="s" s="2">
-        <v>455</v>
-      </c>
+      <c r="N135" s="2"/>
       <c r="O135" s="2"/>
       <c r="P135" t="s" s="2">
         <v>75</v>
@@ -18454,13 +18431,13 @@
         <v>75</v>
       </c>
       <c r="AJ135" t="s" s="2">
-        <v>456</v>
+        <v>75</v>
       </c>
       <c r="AK135" t="s" s="2">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="AL135" t="s" s="2">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="AM135" t="s" s="2">
         <v>75</v>
@@ -18471,7 +18448,7 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="B136" t="s" s="2">
         <v>288</v>
@@ -18583,7 +18560,7 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="B137" t="s" s="2">
         <v>292</v>
@@ -18695,7 +18672,7 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="B138" t="s" s="2">
         <v>293</v>
@@ -18809,7 +18786,7 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="B139" t="s" s="2">
         <v>294</v>
@@ -18925,7 +18902,7 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="B140" t="s" s="2">
         <v>295</v>
@@ -19039,7 +19016,7 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B141" t="s" s="2">
         <v>301</v>
@@ -19153,7 +19130,7 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B142" t="s" s="2">
         <v>306</v>
@@ -19265,7 +19242,7 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="B143" t="s" s="2">
         <v>310</v>
@@ -19377,7 +19354,7 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="B144" t="s" s="2">
         <v>311</v>
@@ -19491,7 +19468,7 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="B145" t="s" s="2">
         <v>312</v>
@@ -19607,7 +19584,7 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="B146" t="s" s="2">
         <v>313</v>
@@ -19719,7 +19696,7 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="B147" t="s" s="2">
         <v>318</v>
@@ -19833,7 +19810,7 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="B148" t="s" s="2">
         <v>322</v>
@@ -19945,7 +19922,7 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="B149" t="s" s="2">
         <v>325</v>
@@ -20057,7 +20034,7 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="B150" t="s" s="2">
         <v>327</v>
@@ -20169,7 +20146,7 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="B151" t="s" s="2">
         <v>330</v>
@@ -20281,7 +20258,7 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="B152" t="s" s="2">
         <v>333</v>
@@ -20393,7 +20370,7 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="B153" t="s" s="2">
         <v>337</v>
@@ -20505,7 +20482,7 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="B154" t="s" s="2">
         <v>338</v>
@@ -20619,7 +20596,7 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="B155" t="s" s="2">
         <v>339</v>
@@ -20735,7 +20712,7 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="B156" t="s" s="2">
         <v>340</v>
@@ -20847,7 +20824,7 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="B157" t="s" s="2">
         <v>343</v>
@@ -20959,7 +20936,7 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="B158" t="s" s="2">
         <v>346</v>
@@ -21073,7 +21050,7 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="B159" t="s" s="2">
         <v>350</v>
@@ -21187,7 +21164,7 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="B160" t="s" s="2">
         <v>354</v>
@@ -21301,13 +21278,13 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="B161" t="s" s="2">
         <v>267</v>
       </c>
       <c r="C161" t="s" s="2">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="D161" t="s" s="2">
         <v>75</v>
@@ -21332,10 +21309,10 @@
         <v>249</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="N161" s="2"/>
       <c r="O161" s="2"/>
@@ -21415,7 +21392,7 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="B162" t="s" s="2">
         <v>274</v>
@@ -21527,7 +21504,7 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="B163" t="s" s="2">
         <v>275</v>
@@ -21641,7 +21618,7 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="B164" t="s" s="2">
         <v>276</v>
@@ -21757,7 +21734,7 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="B165" t="s" s="2">
         <v>277</v>
@@ -21869,7 +21846,7 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="B166" t="s" s="2">
         <v>280</v>
@@ -21983,7 +21960,7 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B167" t="s" s="2">
         <v>284</v>
@@ -22009,13 +21986,13 @@
         <v>75</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="N167" s="2"/>
       <c r="O167" s="2"/>
@@ -22078,13 +22055,13 @@
         <v>75</v>
       </c>
       <c r="AJ167" t="s" s="2">
-        <v>372</v>
+        <v>75</v>
       </c>
       <c r="AK167" t="s" s="2">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="AL167" t="s" s="2">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="AM167" t="s" s="2">
         <v>75</v>
@@ -22095,7 +22072,7 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="B168" t="s" s="2">
         <v>288</v>
@@ -22207,7 +22184,7 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="B169" t="s" s="2">
         <v>292</v>
@@ -22319,7 +22296,7 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="B170" t="s" s="2">
         <v>293</v>
@@ -22433,7 +22410,7 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B171" t="s" s="2">
         <v>294</v>
@@ -22549,7 +22526,7 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="B172" t="s" s="2">
         <v>295</v>
@@ -22663,7 +22640,7 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="B173" t="s" s="2">
         <v>301</v>
@@ -22777,7 +22754,7 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="B174" t="s" s="2">
         <v>306</v>
@@ -22889,7 +22866,7 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="B175" t="s" s="2">
         <v>310</v>
@@ -23001,7 +22978,7 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B176" t="s" s="2">
         <v>311</v>
@@ -23115,7 +23092,7 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="B177" t="s" s="2">
         <v>312</v>
@@ -23231,7 +23208,7 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B178" t="s" s="2">
         <v>313</v>
@@ -23343,7 +23320,7 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="B179" t="s" s="2">
         <v>318</v>
@@ -23457,7 +23434,7 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B180" t="s" s="2">
         <v>322</v>
@@ -23569,7 +23546,7 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="B181" t="s" s="2">
         <v>325</v>
@@ -23681,7 +23658,7 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="B182" t="s" s="2">
         <v>327</v>
@@ -23793,7 +23770,7 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="B183" t="s" s="2">
         <v>330</v>
@@ -23905,7 +23882,7 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="B184" t="s" s="2">
         <v>333</v>
@@ -24017,7 +23994,7 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="B185" t="s" s="2">
         <v>337</v>
@@ -24129,7 +24106,7 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="B186" t="s" s="2">
         <v>338</v>
@@ -24243,7 +24220,7 @@
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="B187" t="s" s="2">
         <v>339</v>
@@ -24359,7 +24336,7 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="B188" t="s" s="2">
         <v>340</v>
@@ -24471,7 +24448,7 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="B189" t="s" s="2">
         <v>343</v>
@@ -24583,7 +24560,7 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="B190" t="s" s="2">
         <v>346</v>
@@ -24697,7 +24674,7 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="B191" t="s" s="2">
         <v>350</v>
@@ -24811,7 +24788,7 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="B192" t="s" s="2">
         <v>354</v>
@@ -24925,13 +24902,13 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="B193" t="s" s="2">
         <v>267</v>
       </c>
       <c r="C193" t="s" s="2">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="D193" t="s" s="2">
         <v>75</v>
@@ -24956,10 +24933,10 @@
         <v>249</v>
       </c>
       <c r="L193" t="s" s="2">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="M193" t="s" s="2">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="N193" s="2"/>
       <c r="O193" s="2"/>
@@ -25039,7 +25016,7 @@
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="B194" t="s" s="2">
         <v>274</v>
@@ -25151,7 +25128,7 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="B195" t="s" s="2">
         <v>275</v>
@@ -25265,7 +25242,7 @@
     </row>
     <row r="196" hidden="true">
       <c r="A196" t="s" s="2">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="B196" t="s" s="2">
         <v>276</v>
@@ -25381,7 +25358,7 @@
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="B197" t="s" s="2">
         <v>277</v>
@@ -25493,7 +25470,7 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B198" t="s" s="2">
         <v>280</v>
@@ -25607,7 +25584,7 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B199" t="s" s="2">
         <v>284</v>
@@ -25633,13 +25610,13 @@
         <v>75</v>
       </c>
       <c r="K199" t="s" s="2">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="L199" t="s" s="2">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="M199" t="s" s="2">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="N199" s="2"/>
       <c r="O199" s="2"/>
@@ -25702,13 +25679,13 @@
         <v>75</v>
       </c>
       <c r="AJ199" t="s" s="2">
-        <v>372</v>
+        <v>75</v>
       </c>
       <c r="AK199" t="s" s="2">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="AL199" t="s" s="2">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="AM199" t="s" s="2">
         <v>75</v>
@@ -25719,7 +25696,7 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="B200" t="s" s="2">
         <v>288</v>
@@ -25831,7 +25808,7 @@
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="B201" t="s" s="2">
         <v>292</v>
@@ -25943,7 +25920,7 @@
     </row>
     <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B202" t="s" s="2">
         <v>293</v>
@@ -26057,7 +26034,7 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="B203" t="s" s="2">
         <v>294</v>
@@ -26173,7 +26150,7 @@
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="B204" t="s" s="2">
         <v>295</v>
@@ -26287,7 +26264,7 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="B205" t="s" s="2">
         <v>301</v>
@@ -26401,7 +26378,7 @@
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="B206" t="s" s="2">
         <v>306</v>
@@ -26513,7 +26490,7 @@
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="B207" t="s" s="2">
         <v>310</v>
@@ -26625,7 +26602,7 @@
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="B208" t="s" s="2">
         <v>311</v>
@@ -26739,7 +26716,7 @@
     </row>
     <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="B209" t="s" s="2">
         <v>312</v>
@@ -26855,7 +26832,7 @@
     </row>
     <row r="210" hidden="true">
       <c r="A210" t="s" s="2">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B210" t="s" s="2">
         <v>313</v>
@@ -26967,7 +26944,7 @@
     </row>
     <row r="211" hidden="true">
       <c r="A211" t="s" s="2">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="B211" t="s" s="2">
         <v>318</v>
@@ -27081,7 +27058,7 @@
     </row>
     <row r="212" hidden="true">
       <c r="A212" t="s" s="2">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="B212" t="s" s="2">
         <v>322</v>
@@ -27193,7 +27170,7 @@
     </row>
     <row r="213" hidden="true">
       <c r="A213" t="s" s="2">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="B213" t="s" s="2">
         <v>325</v>
@@ -27305,7 +27282,7 @@
     </row>
     <row r="214" hidden="true">
       <c r="A214" t="s" s="2">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B214" t="s" s="2">
         <v>327</v>
@@ -27417,7 +27394,7 @@
     </row>
     <row r="215" hidden="true">
       <c r="A215" t="s" s="2">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B215" t="s" s="2">
         <v>330</v>
@@ -27529,7 +27506,7 @@
     </row>
     <row r="216" hidden="true">
       <c r="A216" t="s" s="2">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="B216" t="s" s="2">
         <v>333</v>
@@ -27641,7 +27618,7 @@
     </row>
     <row r="217" hidden="true">
       <c r="A217" t="s" s="2">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="B217" t="s" s="2">
         <v>337</v>
@@ -27753,7 +27730,7 @@
     </row>
     <row r="218" hidden="true">
       <c r="A218" t="s" s="2">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="B218" t="s" s="2">
         <v>338</v>
@@ -27867,7 +27844,7 @@
     </row>
     <row r="219" hidden="true">
       <c r="A219" t="s" s="2">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="B219" t="s" s="2">
         <v>339</v>
@@ -27983,7 +27960,7 @@
     </row>
     <row r="220" hidden="true">
       <c r="A220" t="s" s="2">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="B220" t="s" s="2">
         <v>340</v>
@@ -28095,7 +28072,7 @@
     </row>
     <row r="221" hidden="true">
       <c r="A221" t="s" s="2">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="B221" t="s" s="2">
         <v>343</v>
@@ -28207,7 +28184,7 @@
     </row>
     <row r="222" hidden="true">
       <c r="A222" t="s" s="2">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="B222" t="s" s="2">
         <v>346</v>
@@ -28321,7 +28298,7 @@
     </row>
     <row r="223" hidden="true">
       <c r="A223" t="s" s="2">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="B223" t="s" s="2">
         <v>350</v>
@@ -28435,7 +28412,7 @@
     </row>
     <row r="224" hidden="true">
       <c r="A224" t="s" s="2">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B224" t="s" s="2">
         <v>354</v>
@@ -28549,13 +28526,13 @@
     </row>
     <row r="225" hidden="true">
       <c r="A225" t="s" s="2">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="B225" t="s" s="2">
         <v>267</v>
       </c>
       <c r="C225" t="s" s="2">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="D225" t="s" s="2">
         <v>75</v>
@@ -28580,10 +28557,10 @@
         <v>249</v>
       </c>
       <c r="L225" t="s" s="2">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="M225" t="s" s="2">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="N225" s="2"/>
       <c r="O225" s="2"/>
@@ -28663,7 +28640,7 @@
     </row>
     <row r="226" hidden="true">
       <c r="A226" t="s" s="2">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="B226" t="s" s="2">
         <v>274</v>
@@ -28775,7 +28752,7 @@
     </row>
     <row r="227" hidden="true">
       <c r="A227" t="s" s="2">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="B227" t="s" s="2">
         <v>275</v>
@@ -28889,7 +28866,7 @@
     </row>
     <row r="228" hidden="true">
       <c r="A228" t="s" s="2">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="B228" t="s" s="2">
         <v>276</v>
@@ -29005,7 +28982,7 @@
     </row>
     <row r="229" hidden="true">
       <c r="A229" t="s" s="2">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="B229" t="s" s="2">
         <v>277</v>
@@ -29117,7 +29094,7 @@
     </row>
     <row r="230" hidden="true">
       <c r="A230" t="s" s="2">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="B230" t="s" s="2">
         <v>280</v>
@@ -29231,7 +29208,7 @@
     </row>
     <row r="231" hidden="true">
       <c r="A231" t="s" s="2">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="B231" t="s" s="2">
         <v>284</v>
@@ -29257,13 +29234,13 @@
         <v>75</v>
       </c>
       <c r="K231" t="s" s="2">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="L231" t="s" s="2">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="M231" t="s" s="2">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="N231" s="2"/>
       <c r="O231" s="2"/>
@@ -29326,13 +29303,13 @@
         <v>75</v>
       </c>
       <c r="AJ231" t="s" s="2">
-        <v>574</v>
+        <v>75</v>
       </c>
       <c r="AK231" t="s" s="2">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="AL231" t="s" s="2">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="AM231" t="s" s="2">
         <v>75</v>
@@ -29343,7 +29320,7 @@
     </row>
     <row r="232" hidden="true">
       <c r="A232" t="s" s="2">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="B232" t="s" s="2">
         <v>288</v>
@@ -29455,7 +29432,7 @@
     </row>
     <row r="233" hidden="true">
       <c r="A233" t="s" s="2">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="B233" t="s" s="2">
         <v>292</v>
@@ -29567,7 +29544,7 @@
     </row>
     <row r="234" hidden="true">
       <c r="A234" t="s" s="2">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="B234" t="s" s="2">
         <v>293</v>
@@ -29681,7 +29658,7 @@
     </row>
     <row r="235" hidden="true">
       <c r="A235" t="s" s="2">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="B235" t="s" s="2">
         <v>294</v>
@@ -29797,7 +29774,7 @@
     </row>
     <row r="236" hidden="true">
       <c r="A236" t="s" s="2">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="B236" t="s" s="2">
         <v>295</v>
@@ -29911,7 +29888,7 @@
     </row>
     <row r="237" hidden="true">
       <c r="A237" t="s" s="2">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="B237" t="s" s="2">
         <v>301</v>
@@ -30025,7 +30002,7 @@
     </row>
     <row r="238" hidden="true">
       <c r="A238" t="s" s="2">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="B238" t="s" s="2">
         <v>306</v>
@@ -30137,7 +30114,7 @@
     </row>
     <row r="239" hidden="true">
       <c r="A239" t="s" s="2">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="B239" t="s" s="2">
         <v>310</v>
@@ -30249,7 +30226,7 @@
     </row>
     <row r="240" hidden="true">
       <c r="A240" t="s" s="2">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="B240" t="s" s="2">
         <v>311</v>
@@ -30363,7 +30340,7 @@
     </row>
     <row r="241" hidden="true">
       <c r="A241" t="s" s="2">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="B241" t="s" s="2">
         <v>312</v>
@@ -30479,7 +30456,7 @@
     </row>
     <row r="242" hidden="true">
       <c r="A242" t="s" s="2">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="B242" t="s" s="2">
         <v>313</v>
@@ -30591,7 +30568,7 @@
     </row>
     <row r="243" hidden="true">
       <c r="A243" t="s" s="2">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="B243" t="s" s="2">
         <v>318</v>
@@ -30705,7 +30682,7 @@
     </row>
     <row r="244" hidden="true">
       <c r="A244" t="s" s="2">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="B244" t="s" s="2">
         <v>322</v>
@@ -30817,7 +30794,7 @@
     </row>
     <row r="245" hidden="true">
       <c r="A245" t="s" s="2">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="B245" t="s" s="2">
         <v>325</v>
@@ -30929,7 +30906,7 @@
     </row>
     <row r="246" hidden="true">
       <c r="A246" t="s" s="2">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="B246" t="s" s="2">
         <v>327</v>
@@ -31041,7 +31018,7 @@
     </row>
     <row r="247" hidden="true">
       <c r="A247" t="s" s="2">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="B247" t="s" s="2">
         <v>330</v>
@@ -31153,7 +31130,7 @@
     </row>
     <row r="248" hidden="true">
       <c r="A248" t="s" s="2">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="B248" t="s" s="2">
         <v>333</v>
@@ -31265,7 +31242,7 @@
     </row>
     <row r="249" hidden="true">
       <c r="A249" t="s" s="2">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="B249" t="s" s="2">
         <v>337</v>
@@ -31377,7 +31354,7 @@
     </row>
     <row r="250" hidden="true">
       <c r="A250" t="s" s="2">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="B250" t="s" s="2">
         <v>338</v>
@@ -31491,7 +31468,7 @@
     </row>
     <row r="251" hidden="true">
       <c r="A251" t="s" s="2">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="B251" t="s" s="2">
         <v>339</v>
@@ -31607,7 +31584,7 @@
     </row>
     <row r="252" hidden="true">
       <c r="A252" t="s" s="2">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="B252" t="s" s="2">
         <v>340</v>
@@ -31719,7 +31696,7 @@
     </row>
     <row r="253" hidden="true">
       <c r="A253" t="s" s="2">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="B253" t="s" s="2">
         <v>343</v>
@@ -31831,7 +31808,7 @@
     </row>
     <row r="254" hidden="true">
       <c r="A254" t="s" s="2">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="B254" t="s" s="2">
         <v>346</v>
@@ -31945,7 +31922,7 @@
     </row>
     <row r="255" hidden="true">
       <c r="A255" t="s" s="2">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="B255" t="s" s="2">
         <v>350</v>
@@ -32059,7 +32036,7 @@
     </row>
     <row r="256" hidden="true">
       <c r="A256" t="s" s="2">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="B256" t="s" s="2">
         <v>354</v>
@@ -32173,13 +32150,13 @@
     </row>
     <row r="257" hidden="true">
       <c r="A257" t="s" s="2">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="B257" t="s" s="2">
         <v>267</v>
       </c>
       <c r="C257" t="s" s="2">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="D257" t="s" s="2">
         <v>75</v>
@@ -32204,10 +32181,10 @@
         <v>249</v>
       </c>
       <c r="L257" t="s" s="2">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="M257" t="s" s="2">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="N257" s="2"/>
       <c r="O257" s="2"/>
@@ -32287,7 +32264,7 @@
     </row>
     <row r="258" hidden="true">
       <c r="A258" t="s" s="2">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="B258" t="s" s="2">
         <v>274</v>
@@ -32399,7 +32376,7 @@
     </row>
     <row r="259" hidden="true">
       <c r="A259" t="s" s="2">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="B259" t="s" s="2">
         <v>275</v>
@@ -32513,7 +32490,7 @@
     </row>
     <row r="260" hidden="true">
       <c r="A260" t="s" s="2">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="B260" t="s" s="2">
         <v>276</v>
@@ -32629,7 +32606,7 @@
     </row>
     <row r="261" hidden="true">
       <c r="A261" t="s" s="2">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="B261" t="s" s="2">
         <v>277</v>
@@ -32741,7 +32718,7 @@
     </row>
     <row r="262" hidden="true">
       <c r="A262" t="s" s="2">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="B262" t="s" s="2">
         <v>280</v>
@@ -32855,14 +32832,14 @@
     </row>
     <row r="263" hidden="true">
       <c r="A263" t="s" s="2">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="B263" t="s" s="2">
         <v>284</v>
       </c>
       <c r="C263" s="2"/>
       <c r="D263" t="s" s="2">
-        <v>451</v>
+        <v>408</v>
       </c>
       <c r="E263" s="2"/>
       <c r="F263" t="s" s="2">
@@ -32881,16 +32858,16 @@
         <v>75</v>
       </c>
       <c r="K263" t="s" s="2">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="L263" t="s" s="2">
-        <v>453</v>
+        <v>410</v>
       </c>
       <c r="M263" t="s" s="2">
-        <v>454</v>
+        <v>411</v>
       </c>
       <c r="N263" t="s" s="2">
-        <v>455</v>
+        <v>412</v>
       </c>
       <c r="O263" s="2"/>
       <c r="P263" t="s" s="2">
@@ -32952,13 +32929,13 @@
         <v>75</v>
       </c>
       <c r="AJ263" t="s" s="2">
-        <v>456</v>
+        <v>75</v>
       </c>
       <c r="AK263" t="s" s="2">
-        <v>457</v>
+        <v>413</v>
       </c>
       <c r="AL263" t="s" s="2">
-        <v>458</v>
+        <v>414</v>
       </c>
       <c r="AM263" t="s" s="2">
         <v>75</v>
@@ -32969,7 +32946,7 @@
     </row>
     <row r="264" hidden="true">
       <c r="A264" t="s" s="2">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="B264" t="s" s="2">
         <v>288</v>
@@ -33081,7 +33058,7 @@
     </row>
     <row r="265" hidden="true">
       <c r="A265" t="s" s="2">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="B265" t="s" s="2">
         <v>292</v>
@@ -33193,7 +33170,7 @@
     </row>
     <row r="266" hidden="true">
       <c r="A266" t="s" s="2">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="B266" t="s" s="2">
         <v>293</v>
@@ -33307,7 +33284,7 @@
     </row>
     <row r="267" hidden="true">
       <c r="A267" t="s" s="2">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="B267" t="s" s="2">
         <v>294</v>
@@ -33423,7 +33400,7 @@
     </row>
     <row r="268" hidden="true">
       <c r="A268" t="s" s="2">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="B268" t="s" s="2">
         <v>295</v>
@@ -33537,7 +33514,7 @@
     </row>
     <row r="269" hidden="true">
       <c r="A269" t="s" s="2">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="B269" t="s" s="2">
         <v>301</v>
@@ -33651,7 +33628,7 @@
     </row>
     <row r="270" hidden="true">
       <c r="A270" t="s" s="2">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="B270" t="s" s="2">
         <v>306</v>
@@ -33763,7 +33740,7 @@
     </row>
     <row r="271" hidden="true">
       <c r="A271" t="s" s="2">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="B271" t="s" s="2">
         <v>310</v>
@@ -33875,7 +33852,7 @@
     </row>
     <row r="272" hidden="true">
       <c r="A272" t="s" s="2">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="B272" t="s" s="2">
         <v>311</v>
@@ -33989,7 +33966,7 @@
     </row>
     <row r="273" hidden="true">
       <c r="A273" t="s" s="2">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="B273" t="s" s="2">
         <v>312</v>
@@ -34105,7 +34082,7 @@
     </row>
     <row r="274" hidden="true">
       <c r="A274" t="s" s="2">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="B274" t="s" s="2">
         <v>313</v>
@@ -34217,7 +34194,7 @@
     </row>
     <row r="275" hidden="true">
       <c r="A275" t="s" s="2">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="B275" t="s" s="2">
         <v>318</v>
@@ -34331,7 +34308,7 @@
     </row>
     <row r="276" hidden="true">
       <c r="A276" t="s" s="2">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="B276" t="s" s="2">
         <v>322</v>
@@ -34443,7 +34420,7 @@
     </row>
     <row r="277" hidden="true">
       <c r="A277" t="s" s="2">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="B277" t="s" s="2">
         <v>325</v>
@@ -34555,7 +34532,7 @@
     </row>
     <row r="278" hidden="true">
       <c r="A278" t="s" s="2">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="B278" t="s" s="2">
         <v>327</v>
@@ -34667,7 +34644,7 @@
     </row>
     <row r="279" hidden="true">
       <c r="A279" t="s" s="2">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="B279" t="s" s="2">
         <v>330</v>
@@ -34779,7 +34756,7 @@
     </row>
     <row r="280" hidden="true">
       <c r="A280" t="s" s="2">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="B280" t="s" s="2">
         <v>333</v>
@@ -34891,7 +34868,7 @@
     </row>
     <row r="281" hidden="true">
       <c r="A281" t="s" s="2">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="B281" t="s" s="2">
         <v>337</v>
@@ -35003,7 +34980,7 @@
     </row>
     <row r="282" hidden="true">
       <c r="A282" t="s" s="2">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="B282" t="s" s="2">
         <v>338</v>
@@ -35117,7 +35094,7 @@
     </row>
     <row r="283" hidden="true">
       <c r="A283" t="s" s="2">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="B283" t="s" s="2">
         <v>339</v>
@@ -35233,7 +35210,7 @@
     </row>
     <row r="284" hidden="true">
       <c r="A284" t="s" s="2">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="B284" t="s" s="2">
         <v>340</v>
@@ -35345,7 +35322,7 @@
     </row>
     <row r="285" hidden="true">
       <c r="A285" t="s" s="2">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="B285" t="s" s="2">
         <v>343</v>
@@ -35457,7 +35434,7 @@
     </row>
     <row r="286" hidden="true">
       <c r="A286" t="s" s="2">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="B286" t="s" s="2">
         <v>346</v>
@@ -35571,7 +35548,7 @@
     </row>
     <row r="287" hidden="true">
       <c r="A287" t="s" s="2">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="B287" t="s" s="2">
         <v>350</v>
@@ -35685,7 +35662,7 @@
     </row>
     <row r="288" hidden="true">
       <c r="A288" t="s" s="2">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="B288" t="s" s="2">
         <v>354</v>
@@ -35799,13 +35776,13 @@
     </row>
     <row r="289" hidden="true">
       <c r="A289" t="s" s="2">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="B289" t="s" s="2">
         <v>267</v>
       </c>
       <c r="C289" t="s" s="2">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="D289" t="s" s="2">
         <v>75</v>
@@ -35830,10 +35807,10 @@
         <v>249</v>
       </c>
       <c r="L289" t="s" s="2">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="M289" t="s" s="2">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="N289" s="2"/>
       <c r="O289" s="2"/>
@@ -35913,7 +35890,7 @@
     </row>
     <row r="290" hidden="true">
       <c r="A290" t="s" s="2">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="B290" t="s" s="2">
         <v>274</v>
@@ -36025,7 +36002,7 @@
     </row>
     <row r="291" hidden="true">
       <c r="A291" t="s" s="2">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="B291" t="s" s="2">
         <v>275</v>
@@ -36139,7 +36116,7 @@
     </row>
     <row r="292" hidden="true">
       <c r="A292" t="s" s="2">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="B292" t="s" s="2">
         <v>276</v>
@@ -36255,7 +36232,7 @@
     </row>
     <row r="293" hidden="true">
       <c r="A293" t="s" s="2">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="B293" t="s" s="2">
         <v>277</v>
@@ -36367,7 +36344,7 @@
     </row>
     <row r="294" hidden="true">
       <c r="A294" t="s" s="2">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="B294" t="s" s="2">
         <v>280</v>
@@ -36481,14 +36458,14 @@
     </row>
     <row r="295" hidden="true">
       <c r="A295" t="s" s="2">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="B295" t="s" s="2">
         <v>284</v>
       </c>
       <c r="C295" s="2"/>
       <c r="D295" t="s" s="2">
-        <v>451</v>
+        <v>408</v>
       </c>
       <c r="E295" s="2"/>
       <c r="F295" t="s" s="2">
@@ -36507,16 +36484,16 @@
         <v>75</v>
       </c>
       <c r="K295" t="s" s="2">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="L295" t="s" s="2">
-        <v>453</v>
+        <v>410</v>
       </c>
       <c r="M295" t="s" s="2">
-        <v>454</v>
+        <v>411</v>
       </c>
       <c r="N295" t="s" s="2">
-        <v>455</v>
+        <v>412</v>
       </c>
       <c r="O295" s="2"/>
       <c r="P295" t="s" s="2">
@@ -36578,13 +36555,13 @@
         <v>75</v>
       </c>
       <c r="AJ295" t="s" s="2">
-        <v>456</v>
+        <v>75</v>
       </c>
       <c r="AK295" t="s" s="2">
-        <v>457</v>
+        <v>413</v>
       </c>
       <c r="AL295" t="s" s="2">
-        <v>458</v>
+        <v>414</v>
       </c>
       <c r="AM295" t="s" s="2">
         <v>75</v>
@@ -36595,7 +36572,7 @@
     </row>
     <row r="296" hidden="true">
       <c r="A296" t="s" s="2">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="B296" t="s" s="2">
         <v>288</v>
@@ -36707,7 +36684,7 @@
     </row>
     <row r="297" hidden="true">
       <c r="A297" t="s" s="2">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="B297" t="s" s="2">
         <v>292</v>
@@ -36819,7 +36796,7 @@
     </row>
     <row r="298" hidden="true">
       <c r="A298" t="s" s="2">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="B298" t="s" s="2">
         <v>293</v>
@@ -36933,7 +36910,7 @@
     </row>
     <row r="299" hidden="true">
       <c r="A299" t="s" s="2">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="B299" t="s" s="2">
         <v>294</v>
@@ -37049,7 +37026,7 @@
     </row>
     <row r="300" hidden="true">
       <c r="A300" t="s" s="2">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="B300" t="s" s="2">
         <v>295</v>
@@ -37163,7 +37140,7 @@
     </row>
     <row r="301" hidden="true">
       <c r="A301" t="s" s="2">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="B301" t="s" s="2">
         <v>301</v>
@@ -37277,7 +37254,7 @@
     </row>
     <row r="302" hidden="true">
       <c r="A302" t="s" s="2">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="B302" t="s" s="2">
         <v>306</v>
@@ -37389,7 +37366,7 @@
     </row>
     <row r="303" hidden="true">
       <c r="A303" t="s" s="2">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="B303" t="s" s="2">
         <v>310</v>
@@ -37501,7 +37478,7 @@
     </row>
     <row r="304" hidden="true">
       <c r="A304" t="s" s="2">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="B304" t="s" s="2">
         <v>311</v>
@@ -37615,7 +37592,7 @@
     </row>
     <row r="305" hidden="true">
       <c r="A305" t="s" s="2">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="B305" t="s" s="2">
         <v>312</v>
@@ -37731,7 +37708,7 @@
     </row>
     <row r="306" hidden="true">
       <c r="A306" t="s" s="2">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="B306" t="s" s="2">
         <v>313</v>
@@ -37843,7 +37820,7 @@
     </row>
     <row r="307" hidden="true">
       <c r="A307" t="s" s="2">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="B307" t="s" s="2">
         <v>318</v>
@@ -37957,7 +37934,7 @@
     </row>
     <row r="308" hidden="true">
       <c r="A308" t="s" s="2">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="B308" t="s" s="2">
         <v>322</v>
@@ -38069,7 +38046,7 @@
     </row>
     <row r="309" hidden="true">
       <c r="A309" t="s" s="2">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="B309" t="s" s="2">
         <v>325</v>
@@ -38181,7 +38158,7 @@
     </row>
     <row r="310" hidden="true">
       <c r="A310" t="s" s="2">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="B310" t="s" s="2">
         <v>327</v>
@@ -38293,7 +38270,7 @@
     </row>
     <row r="311" hidden="true">
       <c r="A311" t="s" s="2">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="B311" t="s" s="2">
         <v>330</v>
@@ -38405,7 +38382,7 @@
     </row>
     <row r="312" hidden="true">
       <c r="A312" t="s" s="2">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="B312" t="s" s="2">
         <v>333</v>
@@ -38517,7 +38494,7 @@
     </row>
     <row r="313" hidden="true">
       <c r="A313" t="s" s="2">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="B313" t="s" s="2">
         <v>337</v>
@@ -38629,7 +38606,7 @@
     </row>
     <row r="314" hidden="true">
       <c r="A314" t="s" s="2">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="B314" t="s" s="2">
         <v>338</v>
@@ -38743,7 +38720,7 @@
     </row>
     <row r="315" hidden="true">
       <c r="A315" t="s" s="2">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="B315" t="s" s="2">
         <v>339</v>
@@ -38859,7 +38836,7 @@
     </row>
     <row r="316" hidden="true">
       <c r="A316" t="s" s="2">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="B316" t="s" s="2">
         <v>340</v>
@@ -38971,7 +38948,7 @@
     </row>
     <row r="317" hidden="true">
       <c r="A317" t="s" s="2">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="B317" t="s" s="2">
         <v>343</v>
@@ -39083,7 +39060,7 @@
     </row>
     <row r="318" hidden="true">
       <c r="A318" t="s" s="2">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="B318" t="s" s="2">
         <v>346</v>
@@ -39197,7 +39174,7 @@
     </row>
     <row r="319" hidden="true">
       <c r="A319" t="s" s="2">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="B319" t="s" s="2">
         <v>350</v>
@@ -39311,7 +39288,7 @@
     </row>
     <row r="320" hidden="true">
       <c r="A320" t="s" s="2">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="B320" t="s" s="2">
         <v>354</v>
@@ -39425,13 +39402,13 @@
     </row>
     <row r="321" hidden="true">
       <c r="A321" t="s" s="2">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="B321" t="s" s="2">
         <v>267</v>
       </c>
       <c r="C321" t="s" s="2">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="D321" t="s" s="2">
         <v>75</v>
@@ -39456,10 +39433,10 @@
         <v>249</v>
       </c>
       <c r="L321" t="s" s="2">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="M321" t="s" s="2">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="N321" s="2"/>
       <c r="O321" s="2"/>
@@ -39539,7 +39516,7 @@
     </row>
     <row r="322" hidden="true">
       <c r="A322" t="s" s="2">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="B322" t="s" s="2">
         <v>274</v>
@@ -39651,7 +39628,7 @@
     </row>
     <row r="323" hidden="true">
       <c r="A323" t="s" s="2">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="B323" t="s" s="2">
         <v>275</v>
@@ -39765,7 +39742,7 @@
     </row>
     <row r="324" hidden="true">
       <c r="A324" t="s" s="2">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="B324" t="s" s="2">
         <v>276</v>
@@ -39881,7 +39858,7 @@
     </row>
     <row r="325" hidden="true">
       <c r="A325" t="s" s="2">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="B325" t="s" s="2">
         <v>277</v>
@@ -39993,7 +39970,7 @@
     </row>
     <row r="326" hidden="true">
       <c r="A326" t="s" s="2">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="B326" t="s" s="2">
         <v>280</v>
@@ -40107,14 +40084,14 @@
     </row>
     <row r="327" hidden="true">
       <c r="A327" t="s" s="2">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="B327" t="s" s="2">
         <v>284</v>
       </c>
       <c r="C327" s="2"/>
       <c r="D327" t="s" s="2">
-        <v>451</v>
+        <v>408</v>
       </c>
       <c r="E327" s="2"/>
       <c r="F327" t="s" s="2">
@@ -40133,16 +40110,16 @@
         <v>75</v>
       </c>
       <c r="K327" t="s" s="2">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="L327" t="s" s="2">
-        <v>453</v>
+        <v>410</v>
       </c>
       <c r="M327" t="s" s="2">
-        <v>454</v>
+        <v>411</v>
       </c>
       <c r="N327" t="s" s="2">
-        <v>455</v>
+        <v>412</v>
       </c>
       <c r="O327" s="2"/>
       <c r="P327" t="s" s="2">
@@ -40204,13 +40181,13 @@
         <v>75</v>
       </c>
       <c r="AJ327" t="s" s="2">
-        <v>456</v>
+        <v>75</v>
       </c>
       <c r="AK327" t="s" s="2">
-        <v>457</v>
+        <v>413</v>
       </c>
       <c r="AL327" t="s" s="2">
-        <v>458</v>
+        <v>414</v>
       </c>
       <c r="AM327" t="s" s="2">
         <v>75</v>
@@ -40221,7 +40198,7 @@
     </row>
     <row r="328" hidden="true">
       <c r="A328" t="s" s="2">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="B328" t="s" s="2">
         <v>288</v>
@@ -40333,7 +40310,7 @@
     </row>
     <row r="329" hidden="true">
       <c r="A329" t="s" s="2">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="B329" t="s" s="2">
         <v>292</v>
@@ -40445,7 +40422,7 @@
     </row>
     <row r="330" hidden="true">
       <c r="A330" t="s" s="2">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="B330" t="s" s="2">
         <v>293</v>
@@ -40559,7 +40536,7 @@
     </row>
     <row r="331" hidden="true">
       <c r="A331" t="s" s="2">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="B331" t="s" s="2">
         <v>294</v>
@@ -40675,7 +40652,7 @@
     </row>
     <row r="332" hidden="true">
       <c r="A332" t="s" s="2">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="B332" t="s" s="2">
         <v>295</v>
@@ -40789,7 +40766,7 @@
     </row>
     <row r="333" hidden="true">
       <c r="A333" t="s" s="2">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="B333" t="s" s="2">
         <v>301</v>
@@ -40903,7 +40880,7 @@
     </row>
     <row r="334" hidden="true">
       <c r="A334" t="s" s="2">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="B334" t="s" s="2">
         <v>306</v>
@@ -41015,7 +40992,7 @@
     </row>
     <row r="335" hidden="true">
       <c r="A335" t="s" s="2">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="B335" t="s" s="2">
         <v>310</v>
@@ -41127,7 +41104,7 @@
     </row>
     <row r="336" hidden="true">
       <c r="A336" t="s" s="2">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="B336" t="s" s="2">
         <v>311</v>
@@ -41241,7 +41218,7 @@
     </row>
     <row r="337" hidden="true">
       <c r="A337" t="s" s="2">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="B337" t="s" s="2">
         <v>312</v>
@@ -41357,7 +41334,7 @@
     </row>
     <row r="338" hidden="true">
       <c r="A338" t="s" s="2">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="B338" t="s" s="2">
         <v>313</v>
@@ -41469,7 +41446,7 @@
     </row>
     <row r="339" hidden="true">
       <c r="A339" t="s" s="2">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="B339" t="s" s="2">
         <v>318</v>
@@ -41583,7 +41560,7 @@
     </row>
     <row r="340" hidden="true">
       <c r="A340" t="s" s="2">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="B340" t="s" s="2">
         <v>322</v>
@@ -41695,7 +41672,7 @@
     </row>
     <row r="341" hidden="true">
       <c r="A341" t="s" s="2">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="B341" t="s" s="2">
         <v>325</v>
@@ -41807,7 +41784,7 @@
     </row>
     <row r="342" hidden="true">
       <c r="A342" t="s" s="2">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="B342" t="s" s="2">
         <v>327</v>
@@ -41919,7 +41896,7 @@
     </row>
     <row r="343" hidden="true">
       <c r="A343" t="s" s="2">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="B343" t="s" s="2">
         <v>330</v>
@@ -42031,7 +42008,7 @@
     </row>
     <row r="344" hidden="true">
       <c r="A344" t="s" s="2">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="B344" t="s" s="2">
         <v>333</v>
@@ -42143,7 +42120,7 @@
     </row>
     <row r="345" hidden="true">
       <c r="A345" t="s" s="2">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="B345" t="s" s="2">
         <v>337</v>
@@ -42255,7 +42232,7 @@
     </row>
     <row r="346" hidden="true">
       <c r="A346" t="s" s="2">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="B346" t="s" s="2">
         <v>338</v>
@@ -42369,7 +42346,7 @@
     </row>
     <row r="347" hidden="true">
       <c r="A347" t="s" s="2">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="B347" t="s" s="2">
         <v>339</v>
@@ -42485,7 +42462,7 @@
     </row>
     <row r="348" hidden="true">
       <c r="A348" t="s" s="2">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="B348" t="s" s="2">
         <v>340</v>
@@ -42597,7 +42574,7 @@
     </row>
     <row r="349" hidden="true">
       <c r="A349" t="s" s="2">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="B349" t="s" s="2">
         <v>343</v>
@@ -42709,7 +42686,7 @@
     </row>
     <row r="350" hidden="true">
       <c r="A350" t="s" s="2">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="B350" t="s" s="2">
         <v>346</v>
@@ -42823,7 +42800,7 @@
     </row>
     <row r="351" hidden="true">
       <c r="A351" t="s" s="2">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="B351" t="s" s="2">
         <v>350</v>
@@ -42937,7 +42914,7 @@
     </row>
     <row r="352" hidden="true">
       <c r="A352" t="s" s="2">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="B352" t="s" s="2">
         <v>354</v>
@@ -43051,13 +43028,13 @@
     </row>
     <row r="353" hidden="true">
       <c r="A353" t="s" s="2">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="B353" t="s" s="2">
         <v>267</v>
       </c>
       <c r="C353" t="s" s="2">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="D353" t="s" s="2">
         <v>75</v>
@@ -43082,10 +43059,10 @@
         <v>249</v>
       </c>
       <c r="L353" t="s" s="2">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="M353" t="s" s="2">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="N353" s="2"/>
       <c r="O353" s="2"/>
@@ -43165,7 +43142,7 @@
     </row>
     <row r="354" hidden="true">
       <c r="A354" t="s" s="2">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="B354" t="s" s="2">
         <v>274</v>
@@ -43277,7 +43254,7 @@
     </row>
     <row r="355" hidden="true">
       <c r="A355" t="s" s="2">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="B355" t="s" s="2">
         <v>275</v>
@@ -43391,7 +43368,7 @@
     </row>
     <row r="356" hidden="true">
       <c r="A356" t="s" s="2">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="B356" t="s" s="2">
         <v>276</v>
@@ -43507,7 +43484,7 @@
     </row>
     <row r="357" hidden="true">
       <c r="A357" t="s" s="2">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="B357" t="s" s="2">
         <v>277</v>
@@ -43619,7 +43596,7 @@
     </row>
     <row r="358" hidden="true">
       <c r="A358" t="s" s="2">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="B358" t="s" s="2">
         <v>280</v>
@@ -43733,14 +43710,14 @@
     </row>
     <row r="359" hidden="true">
       <c r="A359" t="s" s="2">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="B359" t="s" s="2">
         <v>284</v>
       </c>
       <c r="C359" s="2"/>
       <c r="D359" t="s" s="2">
-        <v>451</v>
+        <v>408</v>
       </c>
       <c r="E359" s="2"/>
       <c r="F359" t="s" s="2">
@@ -43759,16 +43736,16 @@
         <v>75</v>
       </c>
       <c r="K359" t="s" s="2">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="L359" t="s" s="2">
-        <v>453</v>
+        <v>410</v>
       </c>
       <c r="M359" t="s" s="2">
-        <v>454</v>
+        <v>411</v>
       </c>
       <c r="N359" t="s" s="2">
-        <v>455</v>
+        <v>412</v>
       </c>
       <c r="O359" s="2"/>
       <c r="P359" t="s" s="2">
@@ -43830,13 +43807,13 @@
         <v>75</v>
       </c>
       <c r="AJ359" t="s" s="2">
-        <v>456</v>
+        <v>75</v>
       </c>
       <c r="AK359" t="s" s="2">
-        <v>457</v>
+        <v>413</v>
       </c>
       <c r="AL359" t="s" s="2">
-        <v>458</v>
+        <v>414</v>
       </c>
       <c r="AM359" t="s" s="2">
         <v>75</v>
@@ -43847,7 +43824,7 @@
     </row>
     <row r="360" hidden="true">
       <c r="A360" t="s" s="2">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="B360" t="s" s="2">
         <v>288</v>
@@ -43959,7 +43936,7 @@
     </row>
     <row r="361" hidden="true">
       <c r="A361" t="s" s="2">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="B361" t="s" s="2">
         <v>292</v>
@@ -44071,7 +44048,7 @@
     </row>
     <row r="362" hidden="true">
       <c r="A362" t="s" s="2">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="B362" t="s" s="2">
         <v>293</v>
@@ -44185,7 +44162,7 @@
     </row>
     <row r="363" hidden="true">
       <c r="A363" t="s" s="2">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="B363" t="s" s="2">
         <v>294</v>
@@ -44301,7 +44278,7 @@
     </row>
     <row r="364" hidden="true">
       <c r="A364" t="s" s="2">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="B364" t="s" s="2">
         <v>295</v>
@@ -44415,7 +44392,7 @@
     </row>
     <row r="365" hidden="true">
       <c r="A365" t="s" s="2">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="B365" t="s" s="2">
         <v>301</v>
@@ -44529,7 +44506,7 @@
     </row>
     <row r="366" hidden="true">
       <c r="A366" t="s" s="2">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="B366" t="s" s="2">
         <v>306</v>
@@ -44641,7 +44618,7 @@
     </row>
     <row r="367" hidden="true">
       <c r="A367" t="s" s="2">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="B367" t="s" s="2">
         <v>310</v>
@@ -44753,7 +44730,7 @@
     </row>
     <row r="368" hidden="true">
       <c r="A368" t="s" s="2">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="B368" t="s" s="2">
         <v>311</v>
@@ -44867,7 +44844,7 @@
     </row>
     <row r="369" hidden="true">
       <c r="A369" t="s" s="2">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="B369" t="s" s="2">
         <v>312</v>
@@ -44983,7 +44960,7 @@
     </row>
     <row r="370" hidden="true">
       <c r="A370" t="s" s="2">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="B370" t="s" s="2">
         <v>313</v>
@@ -45095,7 +45072,7 @@
     </row>
     <row r="371" hidden="true">
       <c r="A371" t="s" s="2">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="B371" t="s" s="2">
         <v>318</v>
@@ -45209,7 +45186,7 @@
     </row>
     <row r="372" hidden="true">
       <c r="A372" t="s" s="2">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="B372" t="s" s="2">
         <v>322</v>
@@ -45321,7 +45298,7 @@
     </row>
     <row r="373" hidden="true">
       <c r="A373" t="s" s="2">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="B373" t="s" s="2">
         <v>325</v>
@@ -45433,7 +45410,7 @@
     </row>
     <row r="374" hidden="true">
       <c r="A374" t="s" s="2">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="B374" t="s" s="2">
         <v>327</v>
@@ -45545,7 +45522,7 @@
     </row>
     <row r="375" hidden="true">
       <c r="A375" t="s" s="2">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="B375" t="s" s="2">
         <v>330</v>
@@ -45657,7 +45634,7 @@
     </row>
     <row r="376" hidden="true">
       <c r="A376" t="s" s="2">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="B376" t="s" s="2">
         <v>333</v>
@@ -45769,7 +45746,7 @@
     </row>
     <row r="377" hidden="true">
       <c r="A377" t="s" s="2">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="B377" t="s" s="2">
         <v>337</v>
@@ -45881,7 +45858,7 @@
     </row>
     <row r="378" hidden="true">
       <c r="A378" t="s" s="2">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="B378" t="s" s="2">
         <v>338</v>
@@ -45995,7 +45972,7 @@
     </row>
     <row r="379" hidden="true">
       <c r="A379" t="s" s="2">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="B379" t="s" s="2">
         <v>339</v>
@@ -46111,7 +46088,7 @@
     </row>
     <row r="380" hidden="true">
       <c r="A380" t="s" s="2">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="B380" t="s" s="2">
         <v>340</v>
@@ -46223,7 +46200,7 @@
     </row>
     <row r="381" hidden="true">
       <c r="A381" t="s" s="2">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="B381" t="s" s="2">
         <v>343</v>
@@ -46335,7 +46312,7 @@
     </row>
     <row r="382" hidden="true">
       <c r="A382" t="s" s="2">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="B382" t="s" s="2">
         <v>346</v>
@@ -46449,7 +46426,7 @@
     </row>
     <row r="383" hidden="true">
       <c r="A383" t="s" s="2">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="B383" t="s" s="2">
         <v>350</v>
@@ -46563,7 +46540,7 @@
     </row>
     <row r="384" hidden="true">
       <c r="A384" t="s" s="2">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="B384" t="s" s="2">
         <v>354</v>
@@ -46677,13 +46654,13 @@
     </row>
     <row r="385" hidden="true">
       <c r="A385" t="s" s="2">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="B385" t="s" s="2">
         <v>267</v>
       </c>
       <c r="C385" t="s" s="2">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="D385" t="s" s="2">
         <v>75</v>
@@ -46708,10 +46685,10 @@
         <v>249</v>
       </c>
       <c r="L385" t="s" s="2">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="M385" t="s" s="2">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="N385" s="2"/>
       <c r="O385" s="2"/>
@@ -46791,7 +46768,7 @@
     </row>
     <row r="386" hidden="true">
       <c r="A386" t="s" s="2">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="B386" t="s" s="2">
         <v>274</v>
@@ -46903,7 +46880,7 @@
     </row>
     <row r="387" hidden="true">
       <c r="A387" t="s" s="2">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="B387" t="s" s="2">
         <v>275</v>
@@ -47017,7 +46994,7 @@
     </row>
     <row r="388" hidden="true">
       <c r="A388" t="s" s="2">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="B388" t="s" s="2">
         <v>276</v>
@@ -47133,7 +47110,7 @@
     </row>
     <row r="389" hidden="true">
       <c r="A389" t="s" s="2">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="B389" t="s" s="2">
         <v>277</v>
@@ -47245,7 +47222,7 @@
     </row>
     <row r="390" hidden="true">
       <c r="A390" t="s" s="2">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="B390" t="s" s="2">
         <v>280</v>
@@ -47359,14 +47336,14 @@
     </row>
     <row r="391" hidden="true">
       <c r="A391" t="s" s="2">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="B391" t="s" s="2">
         <v>284</v>
       </c>
       <c r="C391" s="2"/>
       <c r="D391" t="s" s="2">
-        <v>451</v>
+        <v>408</v>
       </c>
       <c r="E391" s="2"/>
       <c r="F391" t="s" s="2">
@@ -47385,16 +47362,16 @@
         <v>75</v>
       </c>
       <c r="K391" t="s" s="2">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="L391" t="s" s="2">
-        <v>453</v>
+        <v>410</v>
       </c>
       <c r="M391" t="s" s="2">
-        <v>454</v>
+        <v>411</v>
       </c>
       <c r="N391" t="s" s="2">
-        <v>455</v>
+        <v>412</v>
       </c>
       <c r="O391" s="2"/>
       <c r="P391" t="s" s="2">
@@ -47456,13 +47433,13 @@
         <v>75</v>
       </c>
       <c r="AJ391" t="s" s="2">
-        <v>456</v>
+        <v>75</v>
       </c>
       <c r="AK391" t="s" s="2">
-        <v>457</v>
+        <v>413</v>
       </c>
       <c r="AL391" t="s" s="2">
-        <v>458</v>
+        <v>414</v>
       </c>
       <c r="AM391" t="s" s="2">
         <v>75</v>
@@ -47473,7 +47450,7 @@
     </row>
     <row r="392" hidden="true">
       <c r="A392" t="s" s="2">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="B392" t="s" s="2">
         <v>288</v>
@@ -47585,7 +47562,7 @@
     </row>
     <row r="393" hidden="true">
       <c r="A393" t="s" s="2">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="B393" t="s" s="2">
         <v>292</v>
@@ -47697,7 +47674,7 @@
     </row>
     <row r="394" hidden="true">
       <c r="A394" t="s" s="2">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="B394" t="s" s="2">
         <v>293</v>
@@ -47811,7 +47788,7 @@
     </row>
     <row r="395" hidden="true">
       <c r="A395" t="s" s="2">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="B395" t="s" s="2">
         <v>294</v>
@@ -47927,7 +47904,7 @@
     </row>
     <row r="396" hidden="true">
       <c r="A396" t="s" s="2">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="B396" t="s" s="2">
         <v>295</v>
@@ -48041,7 +48018,7 @@
     </row>
     <row r="397" hidden="true">
       <c r="A397" t="s" s="2">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="B397" t="s" s="2">
         <v>301</v>
@@ -48155,7 +48132,7 @@
     </row>
     <row r="398" hidden="true">
       <c r="A398" t="s" s="2">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="B398" t="s" s="2">
         <v>306</v>
@@ -48267,7 +48244,7 @@
     </row>
     <row r="399" hidden="true">
       <c r="A399" t="s" s="2">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="B399" t="s" s="2">
         <v>310</v>
@@ -48379,7 +48356,7 @@
     </row>
     <row r="400" hidden="true">
       <c r="A400" t="s" s="2">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="B400" t="s" s="2">
         <v>311</v>
@@ -48493,7 +48470,7 @@
     </row>
     <row r="401" hidden="true">
       <c r="A401" t="s" s="2">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="B401" t="s" s="2">
         <v>312</v>
@@ -48609,7 +48586,7 @@
     </row>
     <row r="402" hidden="true">
       <c r="A402" t="s" s="2">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="B402" t="s" s="2">
         <v>313</v>
@@ -48721,7 +48698,7 @@
     </row>
     <row r="403" hidden="true">
       <c r="A403" t="s" s="2">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="B403" t="s" s="2">
         <v>318</v>
@@ -48835,7 +48812,7 @@
     </row>
     <row r="404" hidden="true">
       <c r="A404" t="s" s="2">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="B404" t="s" s="2">
         <v>322</v>
@@ -48947,7 +48924,7 @@
     </row>
     <row r="405" hidden="true">
       <c r="A405" t="s" s="2">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="B405" t="s" s="2">
         <v>325</v>
@@ -49059,7 +49036,7 @@
     </row>
     <row r="406" hidden="true">
       <c r="A406" t="s" s="2">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="B406" t="s" s="2">
         <v>327</v>
@@ -49171,7 +49148,7 @@
     </row>
     <row r="407" hidden="true">
       <c r="A407" t="s" s="2">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="B407" t="s" s="2">
         <v>330</v>
@@ -49283,7 +49260,7 @@
     </row>
     <row r="408" hidden="true">
       <c r="A408" t="s" s="2">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="B408" t="s" s="2">
         <v>333</v>
@@ -49395,7 +49372,7 @@
     </row>
     <row r="409" hidden="true">
       <c r="A409" t="s" s="2">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="B409" t="s" s="2">
         <v>337</v>
@@ -49507,7 +49484,7 @@
     </row>
     <row r="410" hidden="true">
       <c r="A410" t="s" s="2">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="B410" t="s" s="2">
         <v>338</v>
@@ -49621,7 +49598,7 @@
     </row>
     <row r="411" hidden="true">
       <c r="A411" t="s" s="2">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="B411" t="s" s="2">
         <v>339</v>
@@ -49737,7 +49714,7 @@
     </row>
     <row r="412" hidden="true">
       <c r="A412" t="s" s="2">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="B412" t="s" s="2">
         <v>340</v>
@@ -49849,7 +49826,7 @@
     </row>
     <row r="413" hidden="true">
       <c r="A413" t="s" s="2">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="B413" t="s" s="2">
         <v>343</v>
@@ -49961,7 +49938,7 @@
     </row>
     <row r="414" hidden="true">
       <c r="A414" t="s" s="2">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="B414" t="s" s="2">
         <v>346</v>
@@ -50075,7 +50052,7 @@
     </row>
     <row r="415" hidden="true">
       <c r="A415" t="s" s="2">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="B415" t="s" s="2">
         <v>350</v>
@@ -50189,7 +50166,7 @@
     </row>
     <row r="416" hidden="true">
       <c r="A416" t="s" s="2">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="B416" t="s" s="2">
         <v>354</v>
@@ -50303,13 +50280,13 @@
     </row>
     <row r="417" hidden="true">
       <c r="A417" t="s" s="2">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="B417" t="s" s="2">
         <v>267</v>
       </c>
       <c r="C417" t="s" s="2">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="D417" t="s" s="2">
         <v>75</v>
@@ -50334,10 +50311,10 @@
         <v>249</v>
       </c>
       <c r="L417" t="s" s="2">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="M417" t="s" s="2">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="N417" s="2"/>
       <c r="O417" s="2"/>
@@ -50417,7 +50394,7 @@
     </row>
     <row r="418" hidden="true">
       <c r="A418" t="s" s="2">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="B418" t="s" s="2">
         <v>274</v>
@@ -50529,7 +50506,7 @@
     </row>
     <row r="419" hidden="true">
       <c r="A419" t="s" s="2">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="B419" t="s" s="2">
         <v>275</v>
@@ -50643,7 +50620,7 @@
     </row>
     <row r="420" hidden="true">
       <c r="A420" t="s" s="2">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="B420" t="s" s="2">
         <v>276</v>
@@ -50759,7 +50736,7 @@
     </row>
     <row r="421" hidden="true">
       <c r="A421" t="s" s="2">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="B421" t="s" s="2">
         <v>277</v>
@@ -50871,7 +50848,7 @@
     </row>
     <row r="422" hidden="true">
       <c r="A422" t="s" s="2">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="B422" t="s" s="2">
         <v>280</v>
@@ -50985,14 +50962,14 @@
     </row>
     <row r="423" hidden="true">
       <c r="A423" t="s" s="2">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="B423" t="s" s="2">
         <v>284</v>
       </c>
       <c r="C423" s="2"/>
       <c r="D423" t="s" s="2">
-        <v>451</v>
+        <v>408</v>
       </c>
       <c r="E423" s="2"/>
       <c r="F423" t="s" s="2">
@@ -51011,16 +50988,16 @@
         <v>75</v>
       </c>
       <c r="K423" t="s" s="2">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="L423" t="s" s="2">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="M423" t="s" s="2">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="N423" t="s" s="2">
-        <v>455</v>
+        <v>412</v>
       </c>
       <c r="O423" s="2"/>
       <c r="P423" t="s" s="2">
@@ -51082,13 +51059,13 @@
         <v>75</v>
       </c>
       <c r="AJ423" t="s" s="2">
-        <v>794</v>
+        <v>75</v>
       </c>
       <c r="AK423" t="s" s="2">
-        <v>457</v>
+        <v>413</v>
       </c>
       <c r="AL423" t="s" s="2">
-        <v>458</v>
+        <v>414</v>
       </c>
       <c r="AM423" t="s" s="2">
         <v>75</v>
@@ -51099,7 +51076,7 @@
     </row>
     <row r="424" hidden="true">
       <c r="A424" t="s" s="2">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="B424" t="s" s="2">
         <v>288</v>
@@ -51211,7 +51188,7 @@
     </row>
     <row r="425" hidden="true">
       <c r="A425" t="s" s="2">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="B425" t="s" s="2">
         <v>292</v>
@@ -51323,7 +51300,7 @@
     </row>
     <row r="426" hidden="true">
       <c r="A426" t="s" s="2">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="B426" t="s" s="2">
         <v>293</v>
@@ -51437,7 +51414,7 @@
     </row>
     <row r="427" hidden="true">
       <c r="A427" t="s" s="2">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="B427" t="s" s="2">
         <v>294</v>
@@ -51553,7 +51530,7 @@
     </row>
     <row r="428" hidden="true">
       <c r="A428" t="s" s="2">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="B428" t="s" s="2">
         <v>295</v>
@@ -51667,7 +51644,7 @@
     </row>
     <row r="429" hidden="true">
       <c r="A429" t="s" s="2">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="B429" t="s" s="2">
         <v>301</v>
@@ -51781,7 +51758,7 @@
     </row>
     <row r="430" hidden="true">
       <c r="A430" t="s" s="2">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="B430" t="s" s="2">
         <v>306</v>
@@ -51893,7 +51870,7 @@
     </row>
     <row r="431" hidden="true">
       <c r="A431" t="s" s="2">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="B431" t="s" s="2">
         <v>310</v>
@@ -52005,7 +51982,7 @@
     </row>
     <row r="432" hidden="true">
       <c r="A432" t="s" s="2">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="B432" t="s" s="2">
         <v>311</v>
@@ -52119,7 +52096,7 @@
     </row>
     <row r="433" hidden="true">
       <c r="A433" t="s" s="2">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="B433" t="s" s="2">
         <v>312</v>
@@ -52235,7 +52212,7 @@
     </row>
     <row r="434" hidden="true">
       <c r="A434" t="s" s="2">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="B434" t="s" s="2">
         <v>313</v>
@@ -52347,7 +52324,7 @@
     </row>
     <row r="435" hidden="true">
       <c r="A435" t="s" s="2">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="B435" t="s" s="2">
         <v>318</v>
@@ -52461,7 +52438,7 @@
     </row>
     <row r="436" hidden="true">
       <c r="A436" t="s" s="2">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="B436" t="s" s="2">
         <v>322</v>
@@ -52573,7 +52550,7 @@
     </row>
     <row r="437" hidden="true">
       <c r="A437" t="s" s="2">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="B437" t="s" s="2">
         <v>325</v>
@@ -52685,7 +52662,7 @@
     </row>
     <row r="438" hidden="true">
       <c r="A438" t="s" s="2">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="B438" t="s" s="2">
         <v>327</v>
@@ -52797,7 +52774,7 @@
     </row>
     <row r="439" hidden="true">
       <c r="A439" t="s" s="2">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="B439" t="s" s="2">
         <v>330</v>
@@ -52909,7 +52886,7 @@
     </row>
     <row r="440" hidden="true">
       <c r="A440" t="s" s="2">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="B440" t="s" s="2">
         <v>333</v>
@@ -53021,7 +52998,7 @@
     </row>
     <row r="441" hidden="true">
       <c r="A441" t="s" s="2">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="B441" t="s" s="2">
         <v>337</v>
@@ -53133,7 +53110,7 @@
     </row>
     <row r="442" hidden="true">
       <c r="A442" t="s" s="2">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="B442" t="s" s="2">
         <v>338</v>
@@ -53247,7 +53224,7 @@
     </row>
     <row r="443" hidden="true">
       <c r="A443" t="s" s="2">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="B443" t="s" s="2">
         <v>339</v>
@@ -53363,7 +53340,7 @@
     </row>
     <row r="444" hidden="true">
       <c r="A444" t="s" s="2">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="B444" t="s" s="2">
         <v>340</v>
@@ -53475,7 +53452,7 @@
     </row>
     <row r="445" hidden="true">
       <c r="A445" t="s" s="2">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="B445" t="s" s="2">
         <v>343</v>
@@ -53587,7 +53564,7 @@
     </row>
     <row r="446" hidden="true">
       <c r="A446" t="s" s="2">
-        <v>817</v>
+        <v>811</v>
       </c>
       <c r="B446" t="s" s="2">
         <v>346</v>
@@ -53701,7 +53678,7 @@
     </row>
     <row r="447" hidden="true">
       <c r="A447" t="s" s="2">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="B447" t="s" s="2">
         <v>350</v>
@@ -53815,7 +53792,7 @@
     </row>
     <row r="448" hidden="true">
       <c r="A448" t="s" s="2">
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="B448" t="s" s="2">
         <v>354</v>
@@ -53929,13 +53906,13 @@
     </row>
     <row r="449" hidden="true">
       <c r="A449" t="s" s="2">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="B449" t="s" s="2">
         <v>267</v>
       </c>
       <c r="C449" t="s" s="2">
-        <v>821</v>
+        <v>815</v>
       </c>
       <c r="D449" t="s" s="2">
         <v>75</v>
@@ -53960,10 +53937,10 @@
         <v>249</v>
       </c>
       <c r="L449" t="s" s="2">
-        <v>822</v>
+        <v>816</v>
       </c>
       <c r="M449" t="s" s="2">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="N449" s="2"/>
       <c r="O449" s="2"/>
@@ -54043,7 +54020,7 @@
     </row>
     <row r="450" hidden="true">
       <c r="A450" t="s" s="2">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="B450" t="s" s="2">
         <v>274</v>
@@ -54155,7 +54132,7 @@
     </row>
     <row r="451" hidden="true">
       <c r="A451" t="s" s="2">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="B451" t="s" s="2">
         <v>275</v>
@@ -54269,7 +54246,7 @@
     </row>
     <row r="452" hidden="true">
       <c r="A452" t="s" s="2">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="B452" t="s" s="2">
         <v>276</v>
@@ -54385,7 +54362,7 @@
     </row>
     <row r="453" hidden="true">
       <c r="A453" t="s" s="2">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="B453" t="s" s="2">
         <v>277</v>
@@ -54497,7 +54474,7 @@
     </row>
     <row r="454" hidden="true">
       <c r="A454" t="s" s="2">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="B454" t="s" s="2">
         <v>280</v>
@@ -54611,14 +54588,14 @@
     </row>
     <row r="455" hidden="true">
       <c r="A455" t="s" s="2">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="B455" t="s" s="2">
         <v>284</v>
       </c>
       <c r="C455" s="2"/>
       <c r="D455" t="s" s="2">
-        <v>451</v>
+        <v>408</v>
       </c>
       <c r="E455" s="2"/>
       <c r="F455" t="s" s="2">
@@ -54637,16 +54614,16 @@
         <v>75</v>
       </c>
       <c r="K455" t="s" s="2">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="L455" t="s" s="2">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="M455" t="s" s="2">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="N455" t="s" s="2">
-        <v>455</v>
+        <v>412</v>
       </c>
       <c r="O455" s="2"/>
       <c r="P455" t="s" s="2">
@@ -54708,13 +54685,13 @@
         <v>75</v>
       </c>
       <c r="AJ455" t="s" s="2">
-        <v>794</v>
+        <v>75</v>
       </c>
       <c r="AK455" t="s" s="2">
-        <v>457</v>
+        <v>413</v>
       </c>
       <c r="AL455" t="s" s="2">
-        <v>458</v>
+        <v>414</v>
       </c>
       <c r="AM455" t="s" s="2">
         <v>75</v>
@@ -54725,7 +54702,7 @@
     </row>
     <row r="456" hidden="true">
       <c r="A456" t="s" s="2">
-        <v>833</v>
+        <v>827</v>
       </c>
       <c r="B456" t="s" s="2">
         <v>288</v>
@@ -54837,7 +54814,7 @@
     </row>
     <row r="457" hidden="true">
       <c r="A457" t="s" s="2">
-        <v>834</v>
+        <v>828</v>
       </c>
       <c r="B457" t="s" s="2">
         <v>292</v>
@@ -54949,7 +54926,7 @@
     </row>
     <row r="458" hidden="true">
       <c r="A458" t="s" s="2">
-        <v>835</v>
+        <v>829</v>
       </c>
       <c r="B458" t="s" s="2">
         <v>293</v>
@@ -55063,7 +55040,7 @@
     </row>
     <row r="459" hidden="true">
       <c r="A459" t="s" s="2">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="B459" t="s" s="2">
         <v>294</v>
@@ -55179,7 +55156,7 @@
     </row>
     <row r="460" hidden="true">
       <c r="A460" t="s" s="2">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="B460" t="s" s="2">
         <v>295</v>
@@ -55293,7 +55270,7 @@
     </row>
     <row r="461" hidden="true">
       <c r="A461" t="s" s="2">
-        <v>838</v>
+        <v>832</v>
       </c>
       <c r="B461" t="s" s="2">
         <v>301</v>
@@ -55407,7 +55384,7 @@
     </row>
     <row r="462" hidden="true">
       <c r="A462" t="s" s="2">
-        <v>839</v>
+        <v>833</v>
       </c>
       <c r="B462" t="s" s="2">
         <v>306</v>
@@ -55519,7 +55496,7 @@
     </row>
     <row r="463" hidden="true">
       <c r="A463" t="s" s="2">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="B463" t="s" s="2">
         <v>310</v>
@@ -55631,7 +55608,7 @@
     </row>
     <row r="464" hidden="true">
       <c r="A464" t="s" s="2">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="B464" t="s" s="2">
         <v>311</v>
@@ -55745,7 +55722,7 @@
     </row>
     <row r="465" hidden="true">
       <c r="A465" t="s" s="2">
-        <v>842</v>
+        <v>836</v>
       </c>
       <c r="B465" t="s" s="2">
         <v>312</v>
@@ -55861,7 +55838,7 @@
     </row>
     <row r="466" hidden="true">
       <c r="A466" t="s" s="2">
-        <v>843</v>
+        <v>837</v>
       </c>
       <c r="B466" t="s" s="2">
         <v>313</v>
@@ -55973,7 +55950,7 @@
     </row>
     <row r="467" hidden="true">
       <c r="A467" t="s" s="2">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="B467" t="s" s="2">
         <v>318</v>
@@ -56087,7 +56064,7 @@
     </row>
     <row r="468" hidden="true">
       <c r="A468" t="s" s="2">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="B468" t="s" s="2">
         <v>322</v>
@@ -56199,7 +56176,7 @@
     </row>
     <row r="469" hidden="true">
       <c r="A469" t="s" s="2">
-        <v>846</v>
+        <v>840</v>
       </c>
       <c r="B469" t="s" s="2">
         <v>325</v>
@@ -56311,7 +56288,7 @@
     </row>
     <row r="470" hidden="true">
       <c r="A470" t="s" s="2">
-        <v>847</v>
+        <v>841</v>
       </c>
       <c r="B470" t="s" s="2">
         <v>327</v>
@@ -56423,7 +56400,7 @@
     </row>
     <row r="471" hidden="true">
       <c r="A471" t="s" s="2">
-        <v>848</v>
+        <v>842</v>
       </c>
       <c r="B471" t="s" s="2">
         <v>330</v>
@@ -56535,7 +56512,7 @@
     </row>
     <row r="472" hidden="true">
       <c r="A472" t="s" s="2">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="B472" t="s" s="2">
         <v>333</v>
@@ -56647,7 +56624,7 @@
     </row>
     <row r="473" hidden="true">
       <c r="A473" t="s" s="2">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="B473" t="s" s="2">
         <v>337</v>
@@ -56759,7 +56736,7 @@
     </row>
     <row r="474" hidden="true">
       <c r="A474" t="s" s="2">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="B474" t="s" s="2">
         <v>338</v>
@@ -56873,7 +56850,7 @@
     </row>
     <row r="475" hidden="true">
       <c r="A475" t="s" s="2">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="B475" t="s" s="2">
         <v>339</v>
@@ -56989,7 +56966,7 @@
     </row>
     <row r="476" hidden="true">
       <c r="A476" t="s" s="2">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="B476" t="s" s="2">
         <v>340</v>
@@ -57101,7 +57078,7 @@
     </row>
     <row r="477" hidden="true">
       <c r="A477" t="s" s="2">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="B477" t="s" s="2">
         <v>343</v>
@@ -57213,7 +57190,7 @@
     </row>
     <row r="478" hidden="true">
       <c r="A478" t="s" s="2">
-        <v>855</v>
+        <v>849</v>
       </c>
       <c r="B478" t="s" s="2">
         <v>346</v>
@@ -57327,7 +57304,7 @@
     </row>
     <row r="479" hidden="true">
       <c r="A479" t="s" s="2">
-        <v>856</v>
+        <v>850</v>
       </c>
       <c r="B479" t="s" s="2">
         <v>350</v>
@@ -57441,7 +57418,7 @@
     </row>
     <row r="480" hidden="true">
       <c r="A480" t="s" s="2">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="B480" t="s" s="2">
         <v>354</v>
@@ -57555,13 +57532,13 @@
     </row>
     <row r="481" hidden="true">
       <c r="A481" t="s" s="2">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="B481" t="s" s="2">
         <v>267</v>
       </c>
       <c r="C481" t="s" s="2">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="D481" t="s" s="2">
         <v>75</v>
@@ -57586,10 +57563,10 @@
         <v>249</v>
       </c>
       <c r="L481" t="s" s="2">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="M481" t="s" s="2">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="N481" s="2"/>
       <c r="O481" s="2"/>
@@ -57669,7 +57646,7 @@
     </row>
     <row r="482" hidden="true">
       <c r="A482" t="s" s="2">
-        <v>862</v>
+        <v>856</v>
       </c>
       <c r="B482" t="s" s="2">
         <v>274</v>
@@ -57781,7 +57758,7 @@
     </row>
     <row r="483" hidden="true">
       <c r="A483" t="s" s="2">
-        <v>863</v>
+        <v>857</v>
       </c>
       <c r="B483" t="s" s="2">
         <v>275</v>
@@ -57895,7 +57872,7 @@
     </row>
     <row r="484" hidden="true">
       <c r="A484" t="s" s="2">
-        <v>864</v>
+        <v>858</v>
       </c>
       <c r="B484" t="s" s="2">
         <v>276</v>
@@ -58011,7 +57988,7 @@
     </row>
     <row r="485" hidden="true">
       <c r="A485" t="s" s="2">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="B485" t="s" s="2">
         <v>277</v>
@@ -58123,7 +58100,7 @@
     </row>
     <row r="486" hidden="true">
       <c r="A486" t="s" s="2">
-        <v>866</v>
+        <v>860</v>
       </c>
       <c r="B486" t="s" s="2">
         <v>280</v>
@@ -58237,7 +58214,7 @@
     </row>
     <row r="487" hidden="true">
       <c r="A487" t="s" s="2">
-        <v>867</v>
+        <v>861</v>
       </c>
       <c r="B487" t="s" s="2">
         <v>284</v>
@@ -58263,13 +58240,13 @@
         <v>75</v>
       </c>
       <c r="K487" t="s" s="2">
-        <v>868</v>
+        <v>862</v>
       </c>
       <c r="L487" t="s" s="2">
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="M487" t="s" s="2">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="N487" s="2"/>
       <c r="O487" s="2"/>
@@ -58332,13 +58309,13 @@
         <v>75</v>
       </c>
       <c r="AJ487" t="s" s="2">
-        <v>372</v>
+        <v>75</v>
       </c>
       <c r="AK487" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL487" t="s" s="2">
-        <v>871</v>
+        <v>865</v>
       </c>
       <c r="AM487" t="s" s="2">
         <v>75</v>
@@ -58349,7 +58326,7 @@
     </row>
     <row r="488" hidden="true">
       <c r="A488" t="s" s="2">
-        <v>872</v>
+        <v>866</v>
       </c>
       <c r="B488" t="s" s="2">
         <v>288</v>
@@ -58461,7 +58438,7 @@
     </row>
     <row r="489" hidden="true">
       <c r="A489" t="s" s="2">
-        <v>873</v>
+        <v>867</v>
       </c>
       <c r="B489" t="s" s="2">
         <v>292</v>
@@ -58573,7 +58550,7 @@
     </row>
     <row r="490" hidden="true">
       <c r="A490" t="s" s="2">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="B490" t="s" s="2">
         <v>293</v>
@@ -58687,7 +58664,7 @@
     </row>
     <row r="491" hidden="true">
       <c r="A491" t="s" s="2">
-        <v>875</v>
+        <v>869</v>
       </c>
       <c r="B491" t="s" s="2">
         <v>294</v>
@@ -58803,7 +58780,7 @@
     </row>
     <row r="492" hidden="true">
       <c r="A492" t="s" s="2">
-        <v>876</v>
+        <v>870</v>
       </c>
       <c r="B492" t="s" s="2">
         <v>295</v>
@@ -58917,7 +58894,7 @@
     </row>
     <row r="493" hidden="true">
       <c r="A493" t="s" s="2">
-        <v>877</v>
+        <v>871</v>
       </c>
       <c r="B493" t="s" s="2">
         <v>301</v>
@@ -59031,7 +59008,7 @@
     </row>
     <row r="494" hidden="true">
       <c r="A494" t="s" s="2">
-        <v>878</v>
+        <v>872</v>
       </c>
       <c r="B494" t="s" s="2">
         <v>306</v>
@@ -59143,7 +59120,7 @@
     </row>
     <row r="495" hidden="true">
       <c r="A495" t="s" s="2">
-        <v>879</v>
+        <v>873</v>
       </c>
       <c r="B495" t="s" s="2">
         <v>310</v>
@@ -59255,7 +59232,7 @@
     </row>
     <row r="496" hidden="true">
       <c r="A496" t="s" s="2">
-        <v>880</v>
+        <v>874</v>
       </c>
       <c r="B496" t="s" s="2">
         <v>311</v>
@@ -59369,7 +59346,7 @@
     </row>
     <row r="497" hidden="true">
       <c r="A497" t="s" s="2">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="B497" t="s" s="2">
         <v>312</v>
@@ -59485,7 +59462,7 @@
     </row>
     <row r="498" hidden="true">
       <c r="A498" t="s" s="2">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="B498" t="s" s="2">
         <v>313</v>
@@ -59597,7 +59574,7 @@
     </row>
     <row r="499" hidden="true">
       <c r="A499" t="s" s="2">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="B499" t="s" s="2">
         <v>318</v>
@@ -59711,7 +59688,7 @@
     </row>
     <row r="500" hidden="true">
       <c r="A500" t="s" s="2">
-        <v>884</v>
+        <v>878</v>
       </c>
       <c r="B500" t="s" s="2">
         <v>322</v>
@@ -59823,7 +59800,7 @@
     </row>
     <row r="501" hidden="true">
       <c r="A501" t="s" s="2">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="B501" t="s" s="2">
         <v>325</v>
@@ -59935,7 +59912,7 @@
     </row>
     <row r="502" hidden="true">
       <c r="A502" t="s" s="2">
-        <v>886</v>
+        <v>880</v>
       </c>
       <c r="B502" t="s" s="2">
         <v>327</v>
@@ -60047,7 +60024,7 @@
     </row>
     <row r="503" hidden="true">
       <c r="A503" t="s" s="2">
-        <v>887</v>
+        <v>881</v>
       </c>
       <c r="B503" t="s" s="2">
         <v>330</v>
@@ -60159,7 +60136,7 @@
     </row>
     <row r="504" hidden="true">
       <c r="A504" t="s" s="2">
-        <v>888</v>
+        <v>882</v>
       </c>
       <c r="B504" t="s" s="2">
         <v>333</v>
@@ -60271,7 +60248,7 @@
     </row>
     <row r="505" hidden="true">
       <c r="A505" t="s" s="2">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="B505" t="s" s="2">
         <v>337</v>
@@ -60383,7 +60360,7 @@
     </row>
     <row r="506" hidden="true">
       <c r="A506" t="s" s="2">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="B506" t="s" s="2">
         <v>338</v>
@@ -60497,7 +60474,7 @@
     </row>
     <row r="507" hidden="true">
       <c r="A507" t="s" s="2">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="B507" t="s" s="2">
         <v>339</v>
@@ -60613,7 +60590,7 @@
     </row>
     <row r="508" hidden="true">
       <c r="A508" t="s" s="2">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="B508" t="s" s="2">
         <v>340</v>
@@ -60725,7 +60702,7 @@
     </row>
     <row r="509" hidden="true">
       <c r="A509" t="s" s="2">
-        <v>893</v>
+        <v>887</v>
       </c>
       <c r="B509" t="s" s="2">
         <v>343</v>
@@ -60837,7 +60814,7 @@
     </row>
     <row r="510" hidden="true">
       <c r="A510" t="s" s="2">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="B510" t="s" s="2">
         <v>346</v>
@@ -60951,7 +60928,7 @@
     </row>
     <row r="511" hidden="true">
       <c r="A511" t="s" s="2">
-        <v>895</v>
+        <v>889</v>
       </c>
       <c r="B511" t="s" s="2">
         <v>350</v>
@@ -61065,7 +61042,7 @@
     </row>
     <row r="512" hidden="true">
       <c r="A512" t="s" s="2">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="B512" t="s" s="2">
         <v>354</v>
@@ -61179,10 +61156,10 @@
     </row>
     <row r="513" hidden="true">
       <c r="A513" t="s" s="2">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="B513" t="s" s="2">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="C513" s="2"/>
       <c r="D513" t="s" s="2">
@@ -61205,19 +61182,19 @@
         <v>86</v>
       </c>
       <c r="K513" t="s" s="2">
-        <v>898</v>
+        <v>892</v>
       </c>
       <c r="L513" t="s" s="2">
-        <v>899</v>
+        <v>893</v>
       </c>
       <c r="M513" t="s" s="2">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="N513" t="s" s="2">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="O513" t="s" s="2">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="P513" t="s" s="2">
         <v>75</v>
@@ -61266,7 +61243,7 @@
         <v>75</v>
       </c>
       <c r="AF513" t="s" s="2">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="AG513" t="s" s="2">
         <v>76</v>

--- a/StructureDefinition-ms-bundle.xlsx
+++ b/StructureDefinition-ms-bundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-01T13:56:53-05:00</t>
+    <t>2024-05-20T10:22:59-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
